--- a/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-06-29.xlsx
+++ b/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-06-29.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2030"/>
+  <dimension ref="A1:G1965"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50553,15 +50553,31 @@
     <row r="1926">
       <c r="A1926" t="inlineStr">
         <is>
-          <t>Friday June 20 2025</t>
-        </is>
-      </c>
-      <c r="B1926" t="inlineStr"/>
+          <t>07:30 AM</t>
+        </is>
+      </c>
+      <c r="B1926" t="inlineStr">
+        <is>
+          <t>Goods Trade Balance AdvMAY</t>
+        </is>
+      </c>
       <c r="C1926" t="inlineStr"/>
-      <c r="D1926" t="inlineStr"/>
+      <c r="D1926" t="inlineStr">
+        <is>
+          <t>$-87.62B</t>
+        </is>
+      </c>
       <c r="E1926" t="inlineStr"/>
-      <c r="F1926" t="inlineStr"/>
-      <c r="G1926" t="inlineStr"/>
+      <c r="F1926" t="inlineStr">
+        <is>
+          <t>$-81.0B</t>
+        </is>
+      </c>
+      <c r="G1926" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1927">
       <c r="A1927" t="inlineStr">
@@ -50571,23 +50587,19 @@
       </c>
       <c r="B1927" t="inlineStr">
         <is>
-          <t>Philadelphia Fed Manufacturing IndexJUN</t>
+          <t>Initial Jobless ClaimsJUN/21</t>
         </is>
       </c>
       <c r="C1927" t="inlineStr"/>
       <c r="D1927" t="inlineStr">
         <is>
-          <t>-4</t>
-        </is>
-      </c>
-      <c r="E1927" t="inlineStr">
-        <is>
-          <t>-1</t>
-        </is>
-      </c>
+          <t>245K</t>
+        </is>
+      </c>
+      <c r="E1927" t="inlineStr"/>
       <c r="F1927" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>247.0K</t>
         </is>
       </c>
       <c r="G1927" t="inlineStr">
@@ -50604,20 +50616,24 @@
       </c>
       <c r="B1928" t="inlineStr">
         <is>
-          <t>Philly Fed Business ConditionsJUN</t>
+          <t>Retail Inventories Ex Autos MoM AdvMAY</t>
         </is>
       </c>
       <c r="C1928" t="inlineStr"/>
       <c r="D1928" t="inlineStr">
         <is>
-          <t>47.2</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="E1928" t="inlineStr"/>
-      <c r="F1928" t="inlineStr"/>
+      <c r="F1928" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="G1928" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -50629,20 +50645,24 @@
       </c>
       <c r="B1929" t="inlineStr">
         <is>
-          <t>Philly Fed CAPEX IndexJUN</t>
+          <t>Wholesale Inventories MoM AdvMAY</t>
         </is>
       </c>
       <c r="C1929" t="inlineStr"/>
       <c r="D1929" t="inlineStr">
         <is>
-          <t>27.00</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="E1929" t="inlineStr"/>
-      <c r="F1929" t="inlineStr"/>
+      <c r="F1929" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="G1929" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -50654,17 +50674,21 @@
       </c>
       <c r="B1930" t="inlineStr">
         <is>
-          <t>Philly Fed EmploymentJUN</t>
+          <t>Continuing Jobless ClaimsJUN/14</t>
         </is>
       </c>
       <c r="C1930" t="inlineStr"/>
       <c r="D1930" t="inlineStr">
         <is>
-          <t>16.5</t>
+          <t>1945K</t>
         </is>
       </c>
       <c r="E1930" t="inlineStr"/>
-      <c r="F1930" t="inlineStr"/>
+      <c r="F1930" t="inlineStr">
+        <is>
+          <t>1947.0K</t>
+        </is>
+      </c>
       <c r="G1930" t="inlineStr">
         <is>
           <t>3</t>
@@ -50679,17 +50703,25 @@
       </c>
       <c r="B1931" t="inlineStr">
         <is>
-          <t>Philly Fed New OrdersJUN</t>
+          <t>Core PCE Prices QoQ FinalQ1</t>
         </is>
       </c>
       <c r="C1931" t="inlineStr"/>
       <c r="D1931" t="inlineStr">
         <is>
-          <t>7.5</t>
-        </is>
-      </c>
-      <c r="E1931" t="inlineStr"/>
-      <c r="F1931" t="inlineStr"/>
+          <t>2.6%</t>
+        </is>
+      </c>
+      <c r="E1931" t="inlineStr">
+        <is>
+          <t>3.4%</t>
+        </is>
+      </c>
+      <c r="F1931" t="inlineStr">
+        <is>
+          <t>3.4%</t>
+        </is>
+      </c>
       <c r="G1931" t="inlineStr">
         <is>
           <t>3</t>
@@ -50704,17 +50736,21 @@
       </c>
       <c r="B1932" t="inlineStr">
         <is>
-          <t>Philly Fed Prices PaidJUN</t>
+          <t>Durable Goods Orders ex Defense MoMMAY</t>
         </is>
       </c>
       <c r="C1932" t="inlineStr"/>
       <c r="D1932" t="inlineStr">
         <is>
-          <t>59.80</t>
+          <t>-7.5%</t>
         </is>
       </c>
       <c r="E1932" t="inlineStr"/>
-      <c r="F1932" t="inlineStr"/>
+      <c r="F1932" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="G1932" t="inlineStr">
         <is>
           <t>3</t>
@@ -50724,28 +50760,28 @@
     <row r="1933">
       <c r="A1933" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1933" t="inlineStr">
         <is>
-          <t>CB Leading Index MoMMAY</t>
+          <t>GDP Sales QoQ FinalQ1</t>
         </is>
       </c>
       <c r="C1933" t="inlineStr"/>
       <c r="D1933" t="inlineStr">
         <is>
-          <t>-1%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="E1933" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>-2.9%</t>
         </is>
       </c>
       <c r="F1933" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>-2.9%</t>
         </is>
       </c>
       <c r="G1933" t="inlineStr">
@@ -50757,22 +50793,26 @@
     <row r="1934">
       <c r="A1934" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1934" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJUN/20</t>
+          <t>Jobless Claims 4-week AverageJUN/21</t>
         </is>
       </c>
       <c r="C1934" t="inlineStr"/>
       <c r="D1934" t="inlineStr">
         <is>
-          <t>439</t>
+          <t>245.5K</t>
         </is>
       </c>
       <c r="E1934" t="inlineStr"/>
-      <c r="F1934" t="inlineStr"/>
+      <c r="F1934" t="inlineStr">
+        <is>
+          <t>247.0K</t>
+        </is>
+      </c>
       <c r="G1934" t="inlineStr">
         <is>
           <t>3</t>
@@ -50782,22 +50822,26 @@
     <row r="1935">
       <c r="A1935" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1935" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJUN/20</t>
+          <t>Non Defense Goods Orders Ex AirMAY</t>
         </is>
       </c>
       <c r="C1935" t="inlineStr"/>
       <c r="D1935" t="inlineStr">
         <is>
-          <t>555</t>
+          <t>-1.3%</t>
         </is>
       </c>
       <c r="E1935" t="inlineStr"/>
-      <c r="F1935" t="inlineStr"/>
+      <c r="F1935" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="G1935" t="inlineStr">
         <is>
           <t>3</t>
@@ -50807,22 +50851,30 @@
     <row r="1936">
       <c r="A1936" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1936" t="inlineStr">
         <is>
-          <t>Fed Balance SheetJUN/18</t>
+          <t>PCE Prices QoQ FinalQ1</t>
         </is>
       </c>
       <c r="C1936" t="inlineStr"/>
       <c r="D1936" t="inlineStr">
         <is>
-          <t>$6.68T</t>
-        </is>
-      </c>
-      <c r="E1936" t="inlineStr"/>
-      <c r="F1936" t="inlineStr"/>
+          <t>2.4%</t>
+        </is>
+      </c>
+      <c r="E1936" t="inlineStr">
+        <is>
+          <t>3.6%</t>
+        </is>
+      </c>
+      <c r="F1936" t="inlineStr">
+        <is>
+          <t>3.6%</t>
+        </is>
+      </c>
       <c r="G1936" t="inlineStr">
         <is>
           <t>3</t>
@@ -50832,50 +50884,78 @@
     <row r="1937">
       <c r="A1937" t="inlineStr">
         <is>
-          <t>Sunday June 22 2025</t>
-        </is>
-      </c>
-      <c r="B1937" t="inlineStr"/>
+          <t>07:30 AM</t>
+        </is>
+      </c>
+      <c r="B1937" t="inlineStr">
+        <is>
+          <t>Real Consumer Spending QoQ FinalQ1</t>
+        </is>
+      </c>
       <c r="C1937" t="inlineStr"/>
-      <c r="D1937" t="inlineStr"/>
-      <c r="E1937" t="inlineStr"/>
-      <c r="F1937" t="inlineStr"/>
-      <c r="G1937" t="inlineStr"/>
+      <c r="D1937" t="inlineStr">
+        <is>
+          <t>4%</t>
+        </is>
+      </c>
+      <c r="E1937" t="inlineStr">
+        <is>
+          <t>1.2%</t>
+        </is>
+      </c>
+      <c r="F1937" t="inlineStr">
+        <is>
+          <t>1.2%</t>
+        </is>
+      </c>
+      <c r="G1937" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1938">
       <c r="A1938" t="inlineStr">
         <is>
-          <t>Monday June 23 2025</t>
-        </is>
-      </c>
-      <c r="B1938" t="inlineStr"/>
+          <t>08:00 AM</t>
+        </is>
+      </c>
+      <c r="B1938" t="inlineStr">
+        <is>
+          <t>Fed Hammack Speech</t>
+        </is>
+      </c>
       <c r="C1938" t="inlineStr"/>
       <c r="D1938" t="inlineStr"/>
       <c r="E1938" t="inlineStr"/>
       <c r="F1938" t="inlineStr"/>
-      <c r="G1938" t="inlineStr"/>
+      <c r="G1938" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1939">
       <c r="A1939" t="inlineStr">
         <is>
-          <t>08:45 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1939" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FlashJUN</t>
+          <t>Pending Home Sales MoMMAY</t>
         </is>
       </c>
       <c r="C1939" t="inlineStr"/>
       <c r="D1939" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>-6.3%</t>
         </is>
       </c>
       <c r="E1939" t="inlineStr"/>
       <c r="F1939" t="inlineStr">
         <is>
-          <t>53.1</t>
+          <t>0.9%</t>
         </is>
       </c>
       <c r="G1939" t="inlineStr">
@@ -50887,24 +50967,24 @@
     <row r="1940">
       <c r="A1940" t="inlineStr">
         <is>
-          <t>08:45 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1940" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FlashJUN</t>
+          <t>Pending Home Sales YoYMAY</t>
         </is>
       </c>
       <c r="C1940" t="inlineStr"/>
       <c r="D1940" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>-2.5%</t>
         </is>
       </c>
       <c r="E1940" t="inlineStr"/>
       <c r="F1940" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>-2.1%</t>
         </is>
       </c>
       <c r="G1940" t="inlineStr">
@@ -50916,87 +50996,83 @@
     <row r="1941">
       <c r="A1941" t="inlineStr">
         <is>
-          <t>08:45 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B1941" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FlashJUN</t>
+          <t>EIA Natural Gas Stocks ChangeJUN/20</t>
         </is>
       </c>
       <c r="C1941" t="inlineStr"/>
       <c r="D1941" t="inlineStr">
         <is>
-          <t>53.7</t>
+          <t>95Bcf</t>
         </is>
       </c>
       <c r="E1941" t="inlineStr"/>
-      <c r="F1941" t="inlineStr">
-        <is>
-          <t>54</t>
-        </is>
-      </c>
+      <c r="F1941" t="inlineStr"/>
       <c r="G1941" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1942">
       <c r="A1942" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1942" t="inlineStr">
         <is>
-          <t>Existing Home SalesMAY</t>
+          <t>Kansas Fed Composite IndexJUN</t>
         </is>
       </c>
       <c r="C1942" t="inlineStr"/>
       <c r="D1942" t="inlineStr">
         <is>
-          <t>4M</t>
+          <t>-3</t>
         </is>
       </c>
       <c r="E1942" t="inlineStr"/>
       <c r="F1942" t="inlineStr">
         <is>
-          <t>3.9M</t>
+          <t>-4</t>
         </is>
       </c>
       <c r="G1942" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1943">
       <c r="A1943" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1943" t="inlineStr">
         <is>
-          <t>Existing Home Sales MoMMAY</t>
+          <t>Kansas Fed Manufacturing IndexJUN</t>
         </is>
       </c>
       <c r="C1943" t="inlineStr"/>
       <c r="D1943" t="inlineStr">
         <is>
-          <t>-0.5%</t>
+          <t>-10</t>
         </is>
       </c>
       <c r="E1943" t="inlineStr"/>
       <c r="F1943" t="inlineStr">
         <is>
-          <t>-2.5%</t>
+          <t>-5</t>
         </is>
       </c>
       <c r="G1943" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -51008,15 +51084,11 @@
       </c>
       <c r="B1944" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1944" t="inlineStr"/>
-      <c r="D1944" t="inlineStr">
-        <is>
-          <t>4.240%</t>
-        </is>
-      </c>
+      <c r="D1944" t="inlineStr"/>
       <c r="E1944" t="inlineStr"/>
       <c r="F1944" t="inlineStr"/>
       <c r="G1944" t="inlineStr">
@@ -51033,15 +51105,11 @@
       </c>
       <c r="B1945" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1945" t="inlineStr"/>
-      <c r="D1945" t="inlineStr">
-        <is>
-          <t>4.155%</t>
-        </is>
-      </c>
+      <c r="D1945" t="inlineStr"/>
       <c r="E1945" t="inlineStr"/>
       <c r="F1945" t="inlineStr"/>
       <c r="G1945" t="inlineStr">
@@ -51053,60 +51121,64 @@
     <row r="1946">
       <c r="A1946" t="inlineStr">
         <is>
-          <t>Tuesday June 24 2025</t>
-        </is>
-      </c>
-      <c r="B1946" t="inlineStr"/>
+          <t>11:00 AM</t>
+        </is>
+      </c>
+      <c r="B1946" t="inlineStr">
+        <is>
+          <t>15-Year Mortgage RateJUN/26</t>
+        </is>
+      </c>
       <c r="C1946" t="inlineStr"/>
       <c r="D1946" t="inlineStr"/>
       <c r="E1946" t="inlineStr"/>
       <c r="F1946" t="inlineStr"/>
-      <c r="G1946" t="inlineStr"/>
+      <c r="G1946" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1947">
       <c r="A1947" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1947" t="inlineStr">
         <is>
-          <t>Current AccountQ1</t>
+          <t>30-Year Mortgage RateJUN/26</t>
         </is>
       </c>
       <c r="C1947" t="inlineStr"/>
       <c r="D1947" t="inlineStr">
         <is>
-          <t>$-380B</t>
+          <t>6.81%</t>
         </is>
       </c>
       <c r="E1947" t="inlineStr"/>
-      <c r="F1947" t="inlineStr">
-        <is>
-          <t>$ -380.0B</t>
-        </is>
-      </c>
+      <c r="F1947" t="inlineStr"/>
       <c r="G1947" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1948">
       <c r="A1948" t="inlineStr">
         <is>
-          <t>07:55 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1948" t="inlineStr">
         <is>
-          <t>Redbook YoYJUN/21</t>
+          <t>7-Year Note Auction</t>
         </is>
       </c>
       <c r="C1948" t="inlineStr"/>
       <c r="D1948" t="inlineStr">
         <is>
-          <t>5.2%</t>
+          <t>4.194%</t>
         </is>
       </c>
       <c r="E1948" t="inlineStr"/>
@@ -51120,169 +51192,145 @@
     <row r="1949">
       <c r="A1949" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B1949" t="inlineStr">
         <is>
-          <t>S&amp;P/Case-Shiller Home Price YoYAPR</t>
+          <t>Fed Balance SheetJUN/25</t>
         </is>
       </c>
       <c r="C1949" t="inlineStr"/>
-      <c r="D1949" t="inlineStr">
-        <is>
-          <t>4.1%</t>
-        </is>
-      </c>
+      <c r="D1949" t="inlineStr"/>
       <c r="E1949" t="inlineStr"/>
-      <c r="F1949" t="inlineStr">
-        <is>
-          <t>4.0%</t>
-        </is>
-      </c>
+      <c r="F1949" t="inlineStr"/>
       <c r="G1949" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1950">
       <c r="A1950" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
-        </is>
-      </c>
-      <c r="B1950" t="inlineStr">
-        <is>
-          <t>House Price IndexAPR</t>
-        </is>
-      </c>
+          <t>Friday June 27 2025</t>
+        </is>
+      </c>
+      <c r="B1950" t="inlineStr"/>
       <c r="C1950" t="inlineStr"/>
-      <c r="D1950" t="inlineStr">
-        <is>
-          <t>436.6</t>
-        </is>
-      </c>
+      <c r="D1950" t="inlineStr"/>
       <c r="E1950" t="inlineStr"/>
-      <c r="F1950" t="inlineStr">
-        <is>
-          <t>436.2</t>
-        </is>
-      </c>
-      <c r="G1950" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="F1950" t="inlineStr"/>
+      <c r="G1950" t="inlineStr"/>
     </row>
     <row r="1951">
       <c r="A1951" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1951" t="inlineStr">
         <is>
-          <t>House Price Index MoMAPR</t>
+          <t>Core PCE Price Index MoMMAY</t>
         </is>
       </c>
       <c r="C1951" t="inlineStr"/>
       <c r="D1951" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="E1951" t="inlineStr"/>
       <c r="F1951" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="G1951" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1952">
       <c r="A1952" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1952" t="inlineStr">
         <is>
-          <t>House Price Index YoYAPR</t>
+          <t>Personal Income MoMMAY</t>
         </is>
       </c>
       <c r="C1952" t="inlineStr"/>
       <c r="D1952" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="E1952" t="inlineStr"/>
       <c r="F1952" t="inlineStr">
         <is>
-          <t>3.2%</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="G1952" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1953">
       <c r="A1953" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1953" t="inlineStr">
         <is>
-          <t>S&amp;P/Case-Shiller Home Price MoMAPR</t>
+          <t>Personal Spending MoMMAY</t>
         </is>
       </c>
       <c r="C1953" t="inlineStr"/>
       <c r="D1953" t="inlineStr">
         <is>
-          <t>1.1%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="E1953" t="inlineStr"/>
       <c r="F1953" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="G1953" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1954">
       <c r="A1954" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1954" t="inlineStr">
         <is>
-          <t>CB Consumer ConfidenceJUN</t>
+          <t>PCE Price Index MoMMAY</t>
         </is>
       </c>
       <c r="C1954" t="inlineStr"/>
       <c r="D1954" t="inlineStr">
         <is>
-          <t>98.0</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="E1954" t="inlineStr"/>
       <c r="F1954" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="G1954" t="inlineStr">
@@ -51294,53 +51342,53 @@
     <row r="1955">
       <c r="A1955" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1955" t="inlineStr">
         <is>
-          <t>Richmond Fed Manufacturing IndexJUN</t>
+          <t>PCE Price Index YoYMAY</t>
         </is>
       </c>
       <c r="C1955" t="inlineStr"/>
       <c r="D1955" t="inlineStr">
         <is>
-          <t>-9</t>
+          <t>2.1%</t>
         </is>
       </c>
       <c r="E1955" t="inlineStr"/>
       <c r="F1955" t="inlineStr">
         <is>
-          <t>-7</t>
+          <t>2.2%</t>
         </is>
       </c>
       <c r="G1955" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1956">
       <c r="A1956" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1956" t="inlineStr">
         <is>
-          <t>Richmond Fed Manufacturing Shipments IndexJUN</t>
+          <t>Core PCE Price Index YoYMAY</t>
         </is>
       </c>
       <c r="C1956" t="inlineStr"/>
       <c r="D1956" t="inlineStr">
         <is>
-          <t>-10</t>
+          <t>2.5%</t>
         </is>
       </c>
       <c r="E1956" t="inlineStr"/>
       <c r="F1956" t="inlineStr">
         <is>
-          <t>-8</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="G1956" t="inlineStr">
@@ -51352,76 +51400,84 @@
     <row r="1957">
       <c r="A1957" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>08:15 AM</t>
         </is>
       </c>
       <c r="B1957" t="inlineStr">
         <is>
-          <t>Richmond Fed Services Revenues IndexJUN</t>
+          <t>Fed Hammack Speech</t>
         </is>
       </c>
       <c r="C1957" t="inlineStr"/>
-      <c r="D1957" t="inlineStr">
-        <is>
-          <t>-11</t>
-        </is>
-      </c>
+      <c r="D1957" t="inlineStr"/>
       <c r="E1957" t="inlineStr"/>
-      <c r="F1957" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
-      </c>
+      <c r="F1957" t="inlineStr"/>
       <c r="G1957" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1958">
       <c r="A1958" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1958" t="inlineStr">
         <is>
-          <t>2-Year Note Auction</t>
+          <t>Michigan Consumer Sentiment FinalJUN</t>
         </is>
       </c>
       <c r="C1958" t="inlineStr"/>
       <c r="D1958" t="inlineStr">
         <is>
-          <t>3.955%</t>
-        </is>
-      </c>
-      <c r="E1958" t="inlineStr"/>
-      <c r="F1958" t="inlineStr"/>
+          <t>52.2</t>
+        </is>
+      </c>
+      <c r="E1958" t="inlineStr">
+        <is>
+          <t>60.5</t>
+        </is>
+      </c>
+      <c r="F1958" t="inlineStr">
+        <is>
+          <t>60.5</t>
+        </is>
+      </c>
       <c r="G1958" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1959">
       <c r="A1959" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1959" t="inlineStr">
         <is>
-          <t>Money SupplyMAY</t>
+          <t>Michigan 5 Year Inflation Expectations FinalJUN</t>
         </is>
       </c>
       <c r="C1959" t="inlineStr"/>
       <c r="D1959" t="inlineStr">
         <is>
-          <t>$21.86T</t>
-        </is>
-      </c>
-      <c r="E1959" t="inlineStr"/>
-      <c r="F1959" t="inlineStr"/>
+          <t>4.2%</t>
+        </is>
+      </c>
+      <c r="E1959" t="inlineStr">
+        <is>
+          <t>4.1%</t>
+        </is>
+      </c>
+      <c r="F1959" t="inlineStr">
+        <is>
+          <t>4.1%</t>
+        </is>
+      </c>
       <c r="G1959" t="inlineStr">
         <is>
           <t>3</t>
@@ -51431,83 +51487,115 @@
     <row r="1960">
       <c r="A1960" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1960" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeJUN/20</t>
+          <t>Michigan Consumer Expectations FinalJUN</t>
         </is>
       </c>
       <c r="C1960" t="inlineStr"/>
       <c r="D1960" t="inlineStr">
         <is>
-          <t>-10.133M</t>
-        </is>
-      </c>
-      <c r="E1960" t="inlineStr"/>
-      <c r="F1960" t="inlineStr"/>
+          <t>47.9</t>
+        </is>
+      </c>
+      <c r="E1960" t="inlineStr">
+        <is>
+          <t>58.4</t>
+        </is>
+      </c>
+      <c r="F1960" t="inlineStr">
+        <is>
+          <t>58.4</t>
+        </is>
+      </c>
       <c r="G1960" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1961">
       <c r="A1961" t="inlineStr">
         <is>
-          <t>Wednesday June 25 2025</t>
-        </is>
-      </c>
-      <c r="B1961" t="inlineStr"/>
+          <t>09:00 AM</t>
+        </is>
+      </c>
+      <c r="B1961" t="inlineStr">
+        <is>
+          <t>Michigan Current Conditions FinalJUN</t>
+        </is>
+      </c>
       <c r="C1961" t="inlineStr"/>
-      <c r="D1961" t="inlineStr"/>
-      <c r="E1961" t="inlineStr"/>
-      <c r="F1961" t="inlineStr"/>
-      <c r="G1961" t="inlineStr"/>
+      <c r="D1961" t="inlineStr">
+        <is>
+          <t>58.9</t>
+        </is>
+      </c>
+      <c r="E1961" t="inlineStr">
+        <is>
+          <t>63.7</t>
+        </is>
+      </c>
+      <c r="F1961" t="inlineStr">
+        <is>
+          <t>63.7</t>
+        </is>
+      </c>
+      <c r="G1961" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1962">
       <c r="A1962" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1962" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateJUN/20</t>
+          <t>Michigan Inflation Expectations FinalJUN</t>
         </is>
       </c>
       <c r="C1962" t="inlineStr"/>
       <c r="D1962" t="inlineStr">
         <is>
-          <t>6.84%</t>
-        </is>
-      </c>
-      <c r="E1962" t="inlineStr"/>
-      <c r="F1962" t="inlineStr"/>
+          <t>6.6%</t>
+        </is>
+      </c>
+      <c r="E1962" t="inlineStr">
+        <is>
+          <t>5.1%</t>
+        </is>
+      </c>
+      <c r="F1962" t="inlineStr">
+        <is>
+          <t>5.1%</t>
+        </is>
+      </c>
       <c r="G1962" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1963">
       <c r="A1963" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B1963" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsJUN/20</t>
+          <t>Baker Hughes Oil Rig CountJUN/27</t>
         </is>
       </c>
       <c r="C1963" t="inlineStr"/>
-      <c r="D1963" t="inlineStr">
-        <is>
-          <t>-2.6%</t>
-        </is>
-      </c>
+      <c r="D1963" t="inlineStr"/>
       <c r="E1963" t="inlineStr"/>
       <c r="F1963" t="inlineStr"/>
       <c r="G1963" t="inlineStr">
@@ -51519,20 +51607,16 @@
     <row r="1964">
       <c r="A1964" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B1964" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexJUN/20</t>
+          <t>Baker Hughes Total Rigs CountJUN/27</t>
         </is>
       </c>
       <c r="C1964" t="inlineStr"/>
-      <c r="D1964" t="inlineStr">
-        <is>
-          <t>248.1</t>
-        </is>
-      </c>
+      <c r="D1964" t="inlineStr"/>
       <c r="E1964" t="inlineStr"/>
       <c r="F1964" t="inlineStr"/>
       <c r="G1964" t="inlineStr">
@@ -51544,1772 +51628,15 @@
     <row r="1965">
       <c r="A1965" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1965" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Refinance IndexJUN/20</t>
-        </is>
-      </c>
+          <t>Sunday June 29 2025</t>
+        </is>
+      </c>
+      <c r="B1965" t="inlineStr"/>
       <c r="C1965" t="inlineStr"/>
-      <c r="D1965" t="inlineStr">
-        <is>
-          <t>692.4</t>
-        </is>
-      </c>
+      <c r="D1965" t="inlineStr"/>
       <c r="E1965" t="inlineStr"/>
       <c r="F1965" t="inlineStr"/>
-      <c r="G1965" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1966">
-      <c r="A1966" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1966" t="inlineStr">
-        <is>
-          <t>MBA Purchase IndexJUN/20</t>
-        </is>
-      </c>
-      <c r="C1966" t="inlineStr"/>
-      <c r="D1966" t="inlineStr">
-        <is>
-          <t>165.8</t>
-        </is>
-      </c>
-      <c r="E1966" t="inlineStr"/>
-      <c r="F1966" t="inlineStr"/>
-      <c r="G1966" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1967">
-      <c r="A1967" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1967" t="inlineStr">
-        <is>
-          <t>New Home SalesMAY</t>
-        </is>
-      </c>
-      <c r="C1967" t="inlineStr"/>
-      <c r="D1967" t="inlineStr">
-        <is>
-          <t>0.743M</t>
-        </is>
-      </c>
-      <c r="E1967" t="inlineStr"/>
-      <c r="F1967" t="inlineStr">
-        <is>
-          <t>0.7M</t>
-        </is>
-      </c>
-      <c r="G1967" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1968">
-      <c r="A1968" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1968" t="inlineStr">
-        <is>
-          <t>New Home Sales MoMMAY</t>
-        </is>
-      </c>
-      <c r="C1968" t="inlineStr"/>
-      <c r="D1968" t="inlineStr">
-        <is>
-          <t>10.9%</t>
-        </is>
-      </c>
-      <c r="E1968" t="inlineStr"/>
-      <c r="F1968" t="inlineStr">
-        <is>
-          <t>-5.8%</t>
-        </is>
-      </c>
-      <c r="G1968" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1969">
-      <c r="A1969" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1969" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Stocks ChangeJUN/20</t>
-        </is>
-      </c>
-      <c r="C1969" t="inlineStr"/>
-      <c r="D1969" t="inlineStr">
-        <is>
-          <t>-11.473M</t>
-        </is>
-      </c>
-      <c r="E1969" t="inlineStr"/>
-      <c r="F1969" t="inlineStr"/>
-      <c r="G1969" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1970">
-      <c r="A1970" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1970" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Stocks ChangeJUN/20</t>
-        </is>
-      </c>
-      <c r="C1970" t="inlineStr"/>
-      <c r="D1970" t="inlineStr">
-        <is>
-          <t>0.209M</t>
-        </is>
-      </c>
-      <c r="E1970" t="inlineStr"/>
-      <c r="F1970" t="inlineStr"/>
-      <c r="G1970" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1971">
-      <c r="A1971" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1971" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Imports ChangeJUN/20</t>
-        </is>
-      </c>
-      <c r="C1971" t="inlineStr"/>
-      <c r="D1971" t="inlineStr">
-        <is>
-          <t>-1.747M</t>
-        </is>
-      </c>
-      <c r="E1971" t="inlineStr"/>
-      <c r="F1971" t="inlineStr"/>
-      <c r="G1971" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1972">
-      <c r="A1972" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1972" t="inlineStr">
-        <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeJUN/20</t>
-        </is>
-      </c>
-      <c r="C1972" t="inlineStr"/>
-      <c r="D1972" t="inlineStr">
-        <is>
-          <t>-0.995M</t>
-        </is>
-      </c>
-      <c r="E1972" t="inlineStr"/>
-      <c r="F1972" t="inlineStr"/>
-      <c r="G1972" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1973">
-      <c r="A1973" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1973" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeJUN/20</t>
-        </is>
-      </c>
-      <c r="C1973" t="inlineStr"/>
-      <c r="D1973" t="inlineStr">
-        <is>
-          <t>0.077M</t>
-        </is>
-      </c>
-      <c r="E1973" t="inlineStr"/>
-      <c r="F1973" t="inlineStr"/>
-      <c r="G1973" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1974">
-      <c r="A1974" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1974" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeJUN/20</t>
-        </is>
-      </c>
-      <c r="C1974" t="inlineStr"/>
-      <c r="D1974" t="inlineStr">
-        <is>
-          <t>0.514M</t>
-        </is>
-      </c>
-      <c r="E1974" t="inlineStr"/>
-      <c r="F1974" t="inlineStr"/>
-      <c r="G1974" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1975">
-      <c r="A1975" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1975" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeJUN/20</t>
-        </is>
-      </c>
-      <c r="C1975" t="inlineStr"/>
-      <c r="D1975" t="inlineStr">
-        <is>
-          <t>0.386M</t>
-        </is>
-      </c>
-      <c r="E1975" t="inlineStr"/>
-      <c r="F1975" t="inlineStr"/>
-      <c r="G1975" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1976">
-      <c r="A1976" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1976" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeJUN/20</t>
-        </is>
-      </c>
-      <c r="C1976" t="inlineStr"/>
-      <c r="D1976" t="inlineStr">
-        <is>
-          <t>0.152M</t>
-        </is>
-      </c>
-      <c r="E1976" t="inlineStr"/>
-      <c r="F1976" t="inlineStr"/>
-      <c r="G1976" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1977">
-      <c r="A1977" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1977" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeJUN/20</t>
-        </is>
-      </c>
-      <c r="C1977" t="inlineStr"/>
-      <c r="D1977" t="inlineStr">
-        <is>
-          <t>-0.364M</t>
-        </is>
-      </c>
-      <c r="E1977" t="inlineStr"/>
-      <c r="F1977" t="inlineStr"/>
-      <c r="G1977" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1978">
-      <c r="A1978" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1978" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1978" t="inlineStr"/>
-      <c r="D1978" t="inlineStr"/>
-      <c r="E1978" t="inlineStr"/>
-      <c r="F1978" t="inlineStr"/>
-      <c r="G1978" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1979">
-      <c r="A1979" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B1979" t="inlineStr">
-        <is>
-          <t>5-Year Note Auction</t>
-        </is>
-      </c>
-      <c r="C1979" t="inlineStr"/>
-      <c r="D1979" t="inlineStr">
-        <is>
-          <t>4.071%</t>
-        </is>
-      </c>
-      <c r="E1979" t="inlineStr"/>
-      <c r="F1979" t="inlineStr"/>
-      <c r="G1979" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1980">
-      <c r="A1980" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1980" t="inlineStr">
-        <is>
-          <t>2-Year FRN Auction</t>
-        </is>
-      </c>
-      <c r="C1980" t="inlineStr"/>
-      <c r="D1980" t="inlineStr">
-        <is>
-          <t>0.144%</t>
-        </is>
-      </c>
-      <c r="E1980" t="inlineStr"/>
-      <c r="F1980" t="inlineStr"/>
-      <c r="G1980" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1981">
-      <c r="A1981" t="inlineStr"/>
-      <c r="B1981" t="inlineStr">
-        <is>
-          <t>Building Permits FinalMAY</t>
-        </is>
-      </c>
-      <c r="C1981" t="inlineStr"/>
-      <c r="D1981" t="inlineStr">
-        <is>
-          <t>1.422M</t>
-        </is>
-      </c>
-      <c r="E1981" t="inlineStr">
-        <is>
-          <t>1.393M</t>
-        </is>
-      </c>
-      <c r="F1981" t="inlineStr">
-        <is>
-          <t>1.393M</t>
-        </is>
-      </c>
-      <c r="G1981" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1982">
-      <c r="A1982" t="inlineStr"/>
-      <c r="B1982" t="inlineStr">
-        <is>
-          <t>Building Permits MoM FinalMAY</t>
-        </is>
-      </c>
-      <c r="C1982" t="inlineStr"/>
-      <c r="D1982" t="inlineStr">
-        <is>
-          <t>-4%</t>
-        </is>
-      </c>
-      <c r="E1982" t="inlineStr">
-        <is>
-          <t>-2%</t>
-        </is>
-      </c>
-      <c r="F1982" t="inlineStr">
-        <is>
-          <t>-2.0%</t>
-        </is>
-      </c>
-      <c r="G1982" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1983">
-      <c r="A1983" t="inlineStr">
-        <is>
-          <t>Thursday June 26 2025</t>
-        </is>
-      </c>
-      <c r="B1983" t="inlineStr"/>
-      <c r="C1983" t="inlineStr"/>
-      <c r="D1983" t="inlineStr"/>
-      <c r="E1983" t="inlineStr"/>
-      <c r="F1983" t="inlineStr"/>
-      <c r="G1983" t="inlineStr"/>
-    </row>
-    <row r="1984">
-      <c r="A1984" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B1984" t="inlineStr">
-        <is>
-          <t>Fed Barkin Speech</t>
-        </is>
-      </c>
-      <c r="C1984" t="inlineStr"/>
-      <c r="D1984" t="inlineStr"/>
-      <c r="E1984" t="inlineStr"/>
-      <c r="F1984" t="inlineStr"/>
-      <c r="G1984" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1985">
-      <c r="A1985" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1985" t="inlineStr">
-        <is>
-          <t>Durable Goods Orders MoMMAY</t>
-        </is>
-      </c>
-      <c r="C1985" t="inlineStr"/>
-      <c r="D1985" t="inlineStr">
-        <is>
-          <t>-6.3%</t>
-        </is>
-      </c>
-      <c r="E1985" t="inlineStr"/>
-      <c r="F1985" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G1985" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1986">
-      <c r="A1986" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1986" t="inlineStr">
-        <is>
-          <t>GDP Growth Rate QoQ FinalQ1</t>
-        </is>
-      </c>
-      <c r="C1986" t="inlineStr"/>
-      <c r="D1986" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="E1986" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="F1986" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="G1986" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1987">
-      <c r="A1987" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1987" t="inlineStr">
-        <is>
-          <t>Chicago Fed National Activity IndexMAY</t>
-        </is>
-      </c>
-      <c r="C1987" t="inlineStr"/>
-      <c r="D1987" t="inlineStr">
-        <is>
-          <t>-0.25</t>
-        </is>
-      </c>
-      <c r="E1987" t="inlineStr"/>
-      <c r="F1987" t="inlineStr">
-        <is>
-          <t>-0.1</t>
-        </is>
-      </c>
-      <c r="G1987" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1988">
-      <c r="A1988" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1988" t="inlineStr">
-        <is>
-          <t>Corporate Profits QoQ FinalQ1</t>
-        </is>
-      </c>
-      <c r="C1988" t="inlineStr"/>
-      <c r="D1988" t="inlineStr">
-        <is>
-          <t>5.9%</t>
-        </is>
-      </c>
-      <c r="E1988" t="inlineStr">
-        <is>
-          <t>-3.6%</t>
-        </is>
-      </c>
-      <c r="F1988" t="inlineStr">
-        <is>
-          <t>-3.6%</t>
-        </is>
-      </c>
-      <c r="G1988" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1989">
-      <c r="A1989" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1989" t="inlineStr">
-        <is>
-          <t>Durable Goods Orders Ex Transp MoMMAY</t>
-        </is>
-      </c>
-      <c r="C1989" t="inlineStr"/>
-      <c r="D1989" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E1989" t="inlineStr"/>
-      <c r="F1989" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="G1989" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1990">
-      <c r="A1990" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1990" t="inlineStr">
-        <is>
-          <t>GDP Price Index QoQ FinalQ1</t>
-        </is>
-      </c>
-      <c r="C1990" t="inlineStr"/>
-      <c r="D1990" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
-      <c r="E1990" t="inlineStr">
-        <is>
-          <t>3.7%</t>
-        </is>
-      </c>
-      <c r="F1990" t="inlineStr">
-        <is>
-          <t>3.7%</t>
-        </is>
-      </c>
-      <c r="G1990" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1991">
-      <c r="A1991" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1991" t="inlineStr">
-        <is>
-          <t>Goods Trade Balance AdvMAY</t>
-        </is>
-      </c>
-      <c r="C1991" t="inlineStr"/>
-      <c r="D1991" t="inlineStr">
-        <is>
-          <t>$-87.62B</t>
-        </is>
-      </c>
-      <c r="E1991" t="inlineStr"/>
-      <c r="F1991" t="inlineStr">
-        <is>
-          <t>$-81.0B</t>
-        </is>
-      </c>
-      <c r="G1991" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1992">
-      <c r="A1992" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1992" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsJUN/21</t>
-        </is>
-      </c>
-      <c r="C1992" t="inlineStr"/>
-      <c r="D1992" t="inlineStr">
-        <is>
-          <t>245K</t>
-        </is>
-      </c>
-      <c r="E1992" t="inlineStr"/>
-      <c r="F1992" t="inlineStr">
-        <is>
-          <t>247.0K</t>
-        </is>
-      </c>
-      <c r="G1992" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1993">
-      <c r="A1993" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1993" t="inlineStr">
-        <is>
-          <t>Retail Inventories Ex Autos MoM AdvMAY</t>
-        </is>
-      </c>
-      <c r="C1993" t="inlineStr"/>
-      <c r="D1993" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E1993" t="inlineStr"/>
-      <c r="F1993" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G1993" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1994">
-      <c r="A1994" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1994" t="inlineStr">
-        <is>
-          <t>Wholesale Inventories MoM AdvMAY</t>
-        </is>
-      </c>
-      <c r="C1994" t="inlineStr"/>
-      <c r="D1994" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E1994" t="inlineStr"/>
-      <c r="F1994" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G1994" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1995">
-      <c r="A1995" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1995" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsJUN/14</t>
-        </is>
-      </c>
-      <c r="C1995" t="inlineStr"/>
-      <c r="D1995" t="inlineStr">
-        <is>
-          <t>1945K</t>
-        </is>
-      </c>
-      <c r="E1995" t="inlineStr"/>
-      <c r="F1995" t="inlineStr">
-        <is>
-          <t>1947.0K</t>
-        </is>
-      </c>
-      <c r="G1995" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1996">
-      <c r="A1996" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1996" t="inlineStr">
-        <is>
-          <t>Core PCE Prices QoQ FinalQ1</t>
-        </is>
-      </c>
-      <c r="C1996" t="inlineStr"/>
-      <c r="D1996" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="E1996" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="F1996" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="G1996" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1997">
-      <c r="A1997" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1997" t="inlineStr">
-        <is>
-          <t>Durable Goods Orders ex Defense MoMMAY</t>
-        </is>
-      </c>
-      <c r="C1997" t="inlineStr"/>
-      <c r="D1997" t="inlineStr">
-        <is>
-          <t>-7.5%</t>
-        </is>
-      </c>
-      <c r="E1997" t="inlineStr"/>
-      <c r="F1997" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G1997" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1998">
-      <c r="A1998" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1998" t="inlineStr">
-        <is>
-          <t>GDP Sales QoQ FinalQ1</t>
-        </is>
-      </c>
-      <c r="C1998" t="inlineStr"/>
-      <c r="D1998" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="E1998" t="inlineStr">
-        <is>
-          <t>-2.9%</t>
-        </is>
-      </c>
-      <c r="F1998" t="inlineStr">
-        <is>
-          <t>-2.9%</t>
-        </is>
-      </c>
-      <c r="G1998" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1999">
-      <c r="A1999" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1999" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageJUN/21</t>
-        </is>
-      </c>
-      <c r="C1999" t="inlineStr"/>
-      <c r="D1999" t="inlineStr">
-        <is>
-          <t>245.5K</t>
-        </is>
-      </c>
-      <c r="E1999" t="inlineStr"/>
-      <c r="F1999" t="inlineStr">
-        <is>
-          <t>247.0K</t>
-        </is>
-      </c>
-      <c r="G1999" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2000">
-      <c r="A2000" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2000" t="inlineStr">
-        <is>
-          <t>Non Defense Goods Orders Ex AirMAY</t>
-        </is>
-      </c>
-      <c r="C2000" t="inlineStr"/>
-      <c r="D2000" t="inlineStr">
-        <is>
-          <t>-1.3%</t>
-        </is>
-      </c>
-      <c r="E2000" t="inlineStr"/>
-      <c r="F2000" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G2000" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2001">
-      <c r="A2001" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2001" t="inlineStr">
-        <is>
-          <t>PCE Prices QoQ FinalQ1</t>
-        </is>
-      </c>
-      <c r="C2001" t="inlineStr"/>
-      <c r="D2001" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="E2001" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
-      <c r="F2001" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
-      <c r="G2001" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2002">
-      <c r="A2002" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2002" t="inlineStr">
-        <is>
-          <t>Real Consumer Spending QoQ FinalQ1</t>
-        </is>
-      </c>
-      <c r="C2002" t="inlineStr"/>
-      <c r="D2002" t="inlineStr">
-        <is>
-          <t>4%</t>
-        </is>
-      </c>
-      <c r="E2002" t="inlineStr">
-        <is>
-          <t>1.2%</t>
-        </is>
-      </c>
-      <c r="F2002" t="inlineStr">
-        <is>
-          <t>1.2%</t>
-        </is>
-      </c>
-      <c r="G2002" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2003">
-      <c r="A2003" t="inlineStr">
-        <is>
-          <t>08:00 AM</t>
-        </is>
-      </c>
-      <c r="B2003" t="inlineStr">
-        <is>
-          <t>Fed Hammack Speech</t>
-        </is>
-      </c>
-      <c r="C2003" t="inlineStr"/>
-      <c r="D2003" t="inlineStr"/>
-      <c r="E2003" t="inlineStr"/>
-      <c r="F2003" t="inlineStr"/>
-      <c r="G2003" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2004">
-      <c r="A2004" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B2004" t="inlineStr">
-        <is>
-          <t>Pending Home Sales MoMMAY</t>
-        </is>
-      </c>
-      <c r="C2004" t="inlineStr"/>
-      <c r="D2004" t="inlineStr">
-        <is>
-          <t>-6.3%</t>
-        </is>
-      </c>
-      <c r="E2004" t="inlineStr"/>
-      <c r="F2004" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
-      <c r="G2004" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2005">
-      <c r="A2005" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B2005" t="inlineStr">
-        <is>
-          <t>Pending Home Sales YoYMAY</t>
-        </is>
-      </c>
-      <c r="C2005" t="inlineStr"/>
-      <c r="D2005" t="inlineStr">
-        <is>
-          <t>-2.5%</t>
-        </is>
-      </c>
-      <c r="E2005" t="inlineStr"/>
-      <c r="F2005" t="inlineStr">
-        <is>
-          <t>-2.1%</t>
-        </is>
-      </c>
-      <c r="G2005" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2006">
-      <c r="A2006" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B2006" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeJUN/20</t>
-        </is>
-      </c>
-      <c r="C2006" t="inlineStr"/>
-      <c r="D2006" t="inlineStr">
-        <is>
-          <t>95Bcf</t>
-        </is>
-      </c>
-      <c r="E2006" t="inlineStr"/>
-      <c r="F2006" t="inlineStr"/>
-      <c r="G2006" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2007">
-      <c r="A2007" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B2007" t="inlineStr">
-        <is>
-          <t>Kansas Fed Composite IndexJUN</t>
-        </is>
-      </c>
-      <c r="C2007" t="inlineStr"/>
-      <c r="D2007" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="E2007" t="inlineStr"/>
-      <c r="F2007" t="inlineStr">
-        <is>
-          <t>-4</t>
-        </is>
-      </c>
-      <c r="G2007" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2008">
-      <c r="A2008" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B2008" t="inlineStr">
-        <is>
-          <t>Kansas Fed Manufacturing IndexJUN</t>
-        </is>
-      </c>
-      <c r="C2008" t="inlineStr"/>
-      <c r="D2008" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
-      </c>
-      <c r="E2008" t="inlineStr"/>
-      <c r="F2008" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="G2008" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2009">
-      <c r="A2009" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B2009" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C2009" t="inlineStr"/>
-      <c r="D2009" t="inlineStr"/>
-      <c r="E2009" t="inlineStr"/>
-      <c r="F2009" t="inlineStr"/>
-      <c r="G2009" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2010">
-      <c r="A2010" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B2010" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C2010" t="inlineStr"/>
-      <c r="D2010" t="inlineStr"/>
-      <c r="E2010" t="inlineStr"/>
-      <c r="F2010" t="inlineStr"/>
-      <c r="G2010" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2011">
-      <c r="A2011" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B2011" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateJUN/26</t>
-        </is>
-      </c>
-      <c r="C2011" t="inlineStr"/>
-      <c r="D2011" t="inlineStr"/>
-      <c r="E2011" t="inlineStr"/>
-      <c r="F2011" t="inlineStr"/>
-      <c r="G2011" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2012">
-      <c r="A2012" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B2012" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateJUN/26</t>
-        </is>
-      </c>
-      <c r="C2012" t="inlineStr"/>
-      <c r="D2012" t="inlineStr">
-        <is>
-          <t>6.81%</t>
-        </is>
-      </c>
-      <c r="E2012" t="inlineStr"/>
-      <c r="F2012" t="inlineStr"/>
-      <c r="G2012" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2013">
-      <c r="A2013" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B2013" t="inlineStr">
-        <is>
-          <t>7-Year Note Auction</t>
-        </is>
-      </c>
-      <c r="C2013" t="inlineStr"/>
-      <c r="D2013" t="inlineStr">
-        <is>
-          <t>4.194%</t>
-        </is>
-      </c>
-      <c r="E2013" t="inlineStr"/>
-      <c r="F2013" t="inlineStr"/>
-      <c r="G2013" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2014">
-      <c r="A2014" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B2014" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetJUN/25</t>
-        </is>
-      </c>
-      <c r="C2014" t="inlineStr"/>
-      <c r="D2014" t="inlineStr"/>
-      <c r="E2014" t="inlineStr"/>
-      <c r="F2014" t="inlineStr"/>
-      <c r="G2014" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2015">
-      <c r="A2015" t="inlineStr">
-        <is>
-          <t>Friday June 27 2025</t>
-        </is>
-      </c>
-      <c r="B2015" t="inlineStr"/>
-      <c r="C2015" t="inlineStr"/>
-      <c r="D2015" t="inlineStr"/>
-      <c r="E2015" t="inlineStr"/>
-      <c r="F2015" t="inlineStr"/>
-      <c r="G2015" t="inlineStr"/>
-    </row>
-    <row r="2016">
-      <c r="A2016" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2016" t="inlineStr">
-        <is>
-          <t>Core PCE Price Index MoMMAY</t>
-        </is>
-      </c>
-      <c r="C2016" t="inlineStr"/>
-      <c r="D2016" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E2016" t="inlineStr"/>
-      <c r="F2016" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G2016" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2017">
-      <c r="A2017" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2017" t="inlineStr">
-        <is>
-          <t>Personal Income MoMMAY</t>
-        </is>
-      </c>
-      <c r="C2017" t="inlineStr"/>
-      <c r="D2017" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="E2017" t="inlineStr"/>
-      <c r="F2017" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="G2017" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2018">
-      <c r="A2018" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2018" t="inlineStr">
-        <is>
-          <t>Personal Spending MoMMAY</t>
-        </is>
-      </c>
-      <c r="C2018" t="inlineStr"/>
-      <c r="D2018" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E2018" t="inlineStr"/>
-      <c r="F2018" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G2018" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2019">
-      <c r="A2019" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2019" t="inlineStr">
-        <is>
-          <t>PCE Price Index MoMMAY</t>
-        </is>
-      </c>
-      <c r="C2019" t="inlineStr"/>
-      <c r="D2019" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E2019" t="inlineStr"/>
-      <c r="F2019" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G2019" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2020">
-      <c r="A2020" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2020" t="inlineStr">
-        <is>
-          <t>PCE Price Index YoYMAY</t>
-        </is>
-      </c>
-      <c r="C2020" t="inlineStr"/>
-      <c r="D2020" t="inlineStr">
-        <is>
-          <t>2.1%</t>
-        </is>
-      </c>
-      <c r="E2020" t="inlineStr"/>
-      <c r="F2020" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="G2020" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2021">
-      <c r="A2021" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2021" t="inlineStr">
-        <is>
-          <t>Core PCE Price Index YoYMAY</t>
-        </is>
-      </c>
-      <c r="C2021" t="inlineStr"/>
-      <c r="D2021" t="inlineStr">
-        <is>
-          <t>2.5%</t>
-        </is>
-      </c>
-      <c r="E2021" t="inlineStr"/>
-      <c r="F2021" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="G2021" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2022">
-      <c r="A2022" t="inlineStr">
-        <is>
-          <t>08:15 AM</t>
-        </is>
-      </c>
-      <c r="B2022" t="inlineStr">
-        <is>
-          <t>Fed Hammack Speech</t>
-        </is>
-      </c>
-      <c r="C2022" t="inlineStr"/>
-      <c r="D2022" t="inlineStr"/>
-      <c r="E2022" t="inlineStr"/>
-      <c r="F2022" t="inlineStr"/>
-      <c r="G2022" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2023">
-      <c r="A2023" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B2023" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Sentiment FinalJUN</t>
-        </is>
-      </c>
-      <c r="C2023" t="inlineStr"/>
-      <c r="D2023" t="inlineStr">
-        <is>
-          <t>52.2</t>
-        </is>
-      </c>
-      <c r="E2023" t="inlineStr">
-        <is>
-          <t>60.5</t>
-        </is>
-      </c>
-      <c r="F2023" t="inlineStr">
-        <is>
-          <t>60.5</t>
-        </is>
-      </c>
-      <c r="G2023" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2024">
-      <c r="A2024" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B2024" t="inlineStr">
-        <is>
-          <t>Michigan 5 Year Inflation Expectations FinalJUN</t>
-        </is>
-      </c>
-      <c r="C2024" t="inlineStr"/>
-      <c r="D2024" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="E2024" t="inlineStr">
-        <is>
-          <t>4.1%</t>
-        </is>
-      </c>
-      <c r="F2024" t="inlineStr">
-        <is>
-          <t>4.1%</t>
-        </is>
-      </c>
-      <c r="G2024" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2025">
-      <c r="A2025" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B2025" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Expectations FinalJUN</t>
-        </is>
-      </c>
-      <c r="C2025" t="inlineStr"/>
-      <c r="D2025" t="inlineStr">
-        <is>
-          <t>47.9</t>
-        </is>
-      </c>
-      <c r="E2025" t="inlineStr">
-        <is>
-          <t>58.4</t>
-        </is>
-      </c>
-      <c r="F2025" t="inlineStr">
-        <is>
-          <t>58.4</t>
-        </is>
-      </c>
-      <c r="G2025" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2026">
-      <c r="A2026" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B2026" t="inlineStr">
-        <is>
-          <t>Michigan Current Conditions FinalJUN</t>
-        </is>
-      </c>
-      <c r="C2026" t="inlineStr"/>
-      <c r="D2026" t="inlineStr">
-        <is>
-          <t>58.9</t>
-        </is>
-      </c>
-      <c r="E2026" t="inlineStr">
-        <is>
-          <t>63.7</t>
-        </is>
-      </c>
-      <c r="F2026" t="inlineStr">
-        <is>
-          <t>63.7</t>
-        </is>
-      </c>
-      <c r="G2026" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2027">
-      <c r="A2027" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B2027" t="inlineStr">
-        <is>
-          <t>Michigan Inflation Expectations FinalJUN</t>
-        </is>
-      </c>
-      <c r="C2027" t="inlineStr"/>
-      <c r="D2027" t="inlineStr">
-        <is>
-          <t>6.6%</t>
-        </is>
-      </c>
-      <c r="E2027" t="inlineStr">
-        <is>
-          <t>5.1%</t>
-        </is>
-      </c>
-      <c r="F2027" t="inlineStr">
-        <is>
-          <t>5.1%</t>
-        </is>
-      </c>
-      <c r="G2027" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2028">
-      <c r="A2028" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B2028" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountJUN/27</t>
-        </is>
-      </c>
-      <c r="C2028" t="inlineStr"/>
-      <c r="D2028" t="inlineStr"/>
-      <c r="E2028" t="inlineStr"/>
-      <c r="F2028" t="inlineStr"/>
-      <c r="G2028" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2029">
-      <c r="A2029" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B2029" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountJUN/27</t>
-        </is>
-      </c>
-      <c r="C2029" t="inlineStr"/>
-      <c r="D2029" t="inlineStr"/>
-      <c r="E2029" t="inlineStr"/>
-      <c r="F2029" t="inlineStr"/>
-      <c r="G2029" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2030">
-      <c r="A2030" t="inlineStr">
-        <is>
-          <t>Sunday June 29 2025</t>
-        </is>
-      </c>
-      <c r="B2030" t="inlineStr"/>
-      <c r="C2030" t="inlineStr"/>
-      <c r="D2030" t="inlineStr"/>
-      <c r="E2030" t="inlineStr"/>
-      <c r="F2030" t="inlineStr"/>
-      <c r="G2030" t="inlineStr"/>
+      <c r="G1965" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-06-29.xlsx
+++ b/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-06-29.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2039"/>
+  <dimension ref="A1:G1982"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50768,7 +50768,7 @@
     <row r="1935">
       <c r="A1935" t="inlineStr">
         <is>
-          <t>Friday June 20 2025</t>
+          <t>Thursday June 26 2025</t>
         </is>
       </c>
       <c r="B1935" t="inlineStr"/>
@@ -50781,30 +50781,18 @@
     <row r="1936">
       <c r="A1936" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1936" t="inlineStr">
         <is>
-          <t>Philadelphia Fed Manufacturing IndexJUN</t>
+          <t>Fed Barkin Speech</t>
         </is>
       </c>
       <c r="C1936" t="inlineStr"/>
-      <c r="D1936" t="inlineStr">
-        <is>
-          <t>-4</t>
-        </is>
-      </c>
-      <c r="E1936" t="inlineStr">
-        <is>
-          <t>-1</t>
-        </is>
-      </c>
-      <c r="F1936" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="D1936" t="inlineStr"/>
+      <c r="E1936" t="inlineStr"/>
+      <c r="F1936" t="inlineStr"/>
       <c r="G1936" t="inlineStr">
         <is>
           <t>2</t>
@@ -50819,20 +50807,24 @@
       </c>
       <c r="B1937" t="inlineStr">
         <is>
-          <t>Philly Fed Business ConditionsJUN</t>
+          <t>Durable Goods Orders MoMMAY</t>
         </is>
       </c>
       <c r="C1937" t="inlineStr"/>
       <c r="D1937" t="inlineStr">
         <is>
-          <t>47.2</t>
+          <t>-6.3%</t>
         </is>
       </c>
       <c r="E1937" t="inlineStr"/>
-      <c r="F1937" t="inlineStr"/>
+      <c r="F1937" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="G1937" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -50844,20 +50836,28 @@
       </c>
       <c r="B1938" t="inlineStr">
         <is>
-          <t>Philly Fed CAPEX IndexJUN</t>
+          <t>GDP Growth Rate QoQ FinalQ1</t>
         </is>
       </c>
       <c r="C1938" t="inlineStr"/>
       <c r="D1938" t="inlineStr">
         <is>
-          <t>27.00</t>
-        </is>
-      </c>
-      <c r="E1938" t="inlineStr"/>
-      <c r="F1938" t="inlineStr"/>
+          <t>2.4%</t>
+        </is>
+      </c>
+      <c r="E1938" t="inlineStr">
+        <is>
+          <t>-0.2%</t>
+        </is>
+      </c>
+      <c r="F1938" t="inlineStr">
+        <is>
+          <t>-0.2%</t>
+        </is>
+      </c>
       <c r="G1938" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -50869,20 +50869,24 @@
       </c>
       <c r="B1939" t="inlineStr">
         <is>
-          <t>Philly Fed EmploymentJUN</t>
+          <t>Chicago Fed National Activity IndexMAY</t>
         </is>
       </c>
       <c r="C1939" t="inlineStr"/>
       <c r="D1939" t="inlineStr">
         <is>
-          <t>16.5</t>
+          <t>-0.25</t>
         </is>
       </c>
       <c r="E1939" t="inlineStr"/>
-      <c r="F1939" t="inlineStr"/>
+      <c r="F1939" t="inlineStr">
+        <is>
+          <t>-0.1</t>
+        </is>
+      </c>
       <c r="G1939" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -50894,20 +50898,28 @@
       </c>
       <c r="B1940" t="inlineStr">
         <is>
-          <t>Philly Fed New OrdersJUN</t>
+          <t>Corporate Profits QoQ FinalQ1</t>
         </is>
       </c>
       <c r="C1940" t="inlineStr"/>
       <c r="D1940" t="inlineStr">
         <is>
-          <t>7.5</t>
-        </is>
-      </c>
-      <c r="E1940" t="inlineStr"/>
-      <c r="F1940" t="inlineStr"/>
+          <t>5.9%</t>
+        </is>
+      </c>
+      <c r="E1940" t="inlineStr">
+        <is>
+          <t>-3.6%</t>
+        </is>
+      </c>
+      <c r="F1940" t="inlineStr">
+        <is>
+          <t>-3.6%</t>
+        </is>
+      </c>
       <c r="G1940" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -50919,321 +50931,385 @@
       </c>
       <c r="B1941" t="inlineStr">
         <is>
-          <t>Philly Fed Prices PaidJUN</t>
+          <t>Durable Goods Orders Ex Transp MoMMAY</t>
         </is>
       </c>
       <c r="C1941" t="inlineStr"/>
       <c r="D1941" t="inlineStr">
         <is>
-          <t>59.80</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="E1941" t="inlineStr"/>
-      <c r="F1941" t="inlineStr"/>
+      <c r="F1941" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
       <c r="G1941" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1942">
       <c r="A1942" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1942" t="inlineStr">
         <is>
-          <t>CB Leading Index MoMMAY</t>
+          <t>GDP Price Index QoQ FinalQ1</t>
         </is>
       </c>
       <c r="C1942" t="inlineStr"/>
       <c r="D1942" t="inlineStr">
         <is>
-          <t>-1%</t>
+          <t>2.3%</t>
         </is>
       </c>
       <c r="E1942" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="F1942" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="G1942" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1943">
       <c r="A1943" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1943" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJUN/20</t>
+          <t>Goods Trade Balance AdvMAY</t>
         </is>
       </c>
       <c r="C1943" t="inlineStr"/>
       <c r="D1943" t="inlineStr">
         <is>
-          <t>439</t>
+          <t>$-87.62B</t>
         </is>
       </c>
       <c r="E1943" t="inlineStr"/>
-      <c r="F1943" t="inlineStr"/>
+      <c r="F1943" t="inlineStr">
+        <is>
+          <t>$-81.0B</t>
+        </is>
+      </c>
       <c r="G1943" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1944">
       <c r="A1944" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1944" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJUN/20</t>
+          <t>Initial Jobless ClaimsJUN/21</t>
         </is>
       </c>
       <c r="C1944" t="inlineStr"/>
       <c r="D1944" t="inlineStr">
         <is>
-          <t>555</t>
+          <t>245K</t>
         </is>
       </c>
       <c r="E1944" t="inlineStr"/>
-      <c r="F1944" t="inlineStr"/>
+      <c r="F1944" t="inlineStr">
+        <is>
+          <t>247.0K</t>
+        </is>
+      </c>
       <c r="G1944" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1945">
       <c r="A1945" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1945" t="inlineStr">
         <is>
-          <t>Fed Balance SheetJUN/18</t>
+          <t>Retail Inventories Ex Autos MoM AdvMAY</t>
         </is>
       </c>
       <c r="C1945" t="inlineStr"/>
       <c r="D1945" t="inlineStr">
         <is>
-          <t>$6.68T</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="E1945" t="inlineStr"/>
-      <c r="F1945" t="inlineStr"/>
+      <c r="F1945" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="G1945" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1946">
       <c r="A1946" t="inlineStr">
         <is>
-          <t>Sunday June 22 2025</t>
-        </is>
-      </c>
-      <c r="B1946" t="inlineStr"/>
+          <t>07:30 AM</t>
+        </is>
+      </c>
+      <c r="B1946" t="inlineStr">
+        <is>
+          <t>Wholesale Inventories MoM AdvMAY</t>
+        </is>
+      </c>
       <c r="C1946" t="inlineStr"/>
-      <c r="D1946" t="inlineStr"/>
+      <c r="D1946" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="E1946" t="inlineStr"/>
-      <c r="F1946" t="inlineStr"/>
-      <c r="G1946" t="inlineStr"/>
+      <c r="F1946" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="G1946" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1947">
       <c r="A1947" t="inlineStr">
         <is>
-          <t>Monday June 23 2025</t>
-        </is>
-      </c>
-      <c r="B1947" t="inlineStr"/>
+          <t>07:30 AM</t>
+        </is>
+      </c>
+      <c r="B1947" t="inlineStr">
+        <is>
+          <t>Continuing Jobless ClaimsJUN/14</t>
+        </is>
+      </c>
       <c r="C1947" t="inlineStr"/>
-      <c r="D1947" t="inlineStr"/>
+      <c r="D1947" t="inlineStr">
+        <is>
+          <t>1945K</t>
+        </is>
+      </c>
       <c r="E1947" t="inlineStr"/>
-      <c r="F1947" t="inlineStr"/>
-      <c r="G1947" t="inlineStr"/>
+      <c r="F1947" t="inlineStr">
+        <is>
+          <t>1947.0K</t>
+        </is>
+      </c>
+      <c r="G1947" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1948">
       <c r="A1948" t="inlineStr">
         <is>
-          <t>08:45 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1948" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FlashJUN</t>
+          <t>Core PCE Prices QoQ FinalQ1</t>
         </is>
       </c>
       <c r="C1948" t="inlineStr"/>
       <c r="D1948" t="inlineStr">
         <is>
-          <t>53</t>
-        </is>
-      </c>
-      <c r="E1948" t="inlineStr"/>
+          <t>2.6%</t>
+        </is>
+      </c>
+      <c r="E1948" t="inlineStr">
+        <is>
+          <t>3.4%</t>
+        </is>
+      </c>
       <c r="F1948" t="inlineStr">
         <is>
-          <t>53.1</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="G1948" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1949">
       <c r="A1949" t="inlineStr">
         <is>
-          <t>08:45 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1949" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FlashJUN</t>
+          <t>Durable Goods Orders ex Defense MoMMAY</t>
         </is>
       </c>
       <c r="C1949" t="inlineStr"/>
       <c r="D1949" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>-7.5%</t>
         </is>
       </c>
       <c r="E1949" t="inlineStr"/>
       <c r="F1949" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="G1949" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1950">
       <c r="A1950" t="inlineStr">
         <is>
-          <t>08:45 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1950" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FlashJUN</t>
+          <t>GDP Sales QoQ FinalQ1</t>
         </is>
       </c>
       <c r="C1950" t="inlineStr"/>
       <c r="D1950" t="inlineStr">
         <is>
-          <t>53.7</t>
-        </is>
-      </c>
-      <c r="E1950" t="inlineStr"/>
+          <t>3.3%</t>
+        </is>
+      </c>
+      <c r="E1950" t="inlineStr">
+        <is>
+          <t>-2.9%</t>
+        </is>
+      </c>
       <c r="F1950" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>-2.9%</t>
         </is>
       </c>
       <c r="G1950" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1951">
       <c r="A1951" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1951" t="inlineStr">
         <is>
-          <t>Existing Home SalesMAY</t>
+          <t>Jobless Claims 4-week AverageJUN/21</t>
         </is>
       </c>
       <c r="C1951" t="inlineStr"/>
       <c r="D1951" t="inlineStr">
         <is>
-          <t>4M</t>
+          <t>245.5K</t>
         </is>
       </c>
       <c r="E1951" t="inlineStr"/>
       <c r="F1951" t="inlineStr">
         <is>
-          <t>3.9M</t>
+          <t>247.0K</t>
         </is>
       </c>
       <c r="G1951" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1952">
       <c r="A1952" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1952" t="inlineStr">
         <is>
-          <t>Existing Home Sales MoMMAY</t>
+          <t>Non Defense Goods Orders Ex AirMAY</t>
         </is>
       </c>
       <c r="C1952" t="inlineStr"/>
       <c r="D1952" t="inlineStr">
         <is>
-          <t>-0.5%</t>
+          <t>-1.3%</t>
         </is>
       </c>
       <c r="E1952" t="inlineStr"/>
       <c r="F1952" t="inlineStr">
         <is>
-          <t>-2.5%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="G1952" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1953">
       <c r="A1953" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1953" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>PCE Prices QoQ FinalQ1</t>
         </is>
       </c>
       <c r="C1953" t="inlineStr"/>
       <c r="D1953" t="inlineStr">
         <is>
-          <t>4.240%</t>
-        </is>
-      </c>
-      <c r="E1953" t="inlineStr"/>
-      <c r="F1953" t="inlineStr"/>
+          <t>2.4%</t>
+        </is>
+      </c>
+      <c r="E1953" t="inlineStr">
+        <is>
+          <t>3.6%</t>
+        </is>
+      </c>
+      <c r="F1953" t="inlineStr">
+        <is>
+          <t>3.6%</t>
+        </is>
+      </c>
       <c r="G1953" t="inlineStr">
         <is>
           <t>3</t>
@@ -51243,22 +51319,30 @@
     <row r="1954">
       <c r="A1954" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1954" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Real Consumer Spending QoQ FinalQ1</t>
         </is>
       </c>
       <c r="C1954" t="inlineStr"/>
       <c r="D1954" t="inlineStr">
         <is>
-          <t>4.155%</t>
-        </is>
-      </c>
-      <c r="E1954" t="inlineStr"/>
-      <c r="F1954" t="inlineStr"/>
+          <t>4%</t>
+        </is>
+      </c>
+      <c r="E1954" t="inlineStr">
+        <is>
+          <t>1.2%</t>
+        </is>
+      </c>
+      <c r="F1954" t="inlineStr">
+        <is>
+          <t>1.2%</t>
+        </is>
+      </c>
       <c r="G1954" t="inlineStr">
         <is>
           <t>3</t>
@@ -51268,37 +51352,45 @@
     <row r="1955">
       <c r="A1955" t="inlineStr">
         <is>
-          <t>Tuesday June 24 2025</t>
-        </is>
-      </c>
-      <c r="B1955" t="inlineStr"/>
+          <t>08:00 AM</t>
+        </is>
+      </c>
+      <c r="B1955" t="inlineStr">
+        <is>
+          <t>Fed Hammack Speech</t>
+        </is>
+      </c>
       <c r="C1955" t="inlineStr"/>
       <c r="D1955" t="inlineStr"/>
       <c r="E1955" t="inlineStr"/>
       <c r="F1955" t="inlineStr"/>
-      <c r="G1955" t="inlineStr"/>
+      <c r="G1955" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1956">
       <c r="A1956" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1956" t="inlineStr">
         <is>
-          <t>Current AccountQ1</t>
+          <t>Pending Home Sales MoMMAY</t>
         </is>
       </c>
       <c r="C1956" t="inlineStr"/>
       <c r="D1956" t="inlineStr">
         <is>
-          <t>$-380B</t>
+          <t>-6.3%</t>
         </is>
       </c>
       <c r="E1956" t="inlineStr"/>
       <c r="F1956" t="inlineStr">
         <is>
-          <t>$ -380.0B</t>
+          <t>0.9%</t>
         </is>
       </c>
       <c r="G1956" t="inlineStr">
@@ -51310,78 +51402,78 @@
     <row r="1957">
       <c r="A1957" t="inlineStr">
         <is>
-          <t>07:55 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1957" t="inlineStr">
         <is>
-          <t>Redbook YoYJUN/21</t>
+          <t>Pending Home Sales YoYMAY</t>
         </is>
       </c>
       <c r="C1957" t="inlineStr"/>
       <c r="D1957" t="inlineStr">
         <is>
-          <t>5.2%</t>
+          <t>-2.5%</t>
         </is>
       </c>
       <c r="E1957" t="inlineStr"/>
-      <c r="F1957" t="inlineStr"/>
+      <c r="F1957" t="inlineStr">
+        <is>
+          <t>-2.1%</t>
+        </is>
+      </c>
       <c r="G1957" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1958">
       <c r="A1958" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B1958" t="inlineStr">
         <is>
-          <t>S&amp;P/Case-Shiller Home Price YoYAPR</t>
+          <t>EIA Natural Gas Stocks ChangeJUN/20</t>
         </is>
       </c>
       <c r="C1958" t="inlineStr"/>
       <c r="D1958" t="inlineStr">
         <is>
-          <t>4.1%</t>
+          <t>95Bcf</t>
         </is>
       </c>
       <c r="E1958" t="inlineStr"/>
-      <c r="F1958" t="inlineStr">
-        <is>
-          <t>4.0%</t>
-        </is>
-      </c>
+      <c r="F1958" t="inlineStr"/>
       <c r="G1958" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1959">
       <c r="A1959" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1959" t="inlineStr">
         <is>
-          <t>House Price IndexAPR</t>
+          <t>Kansas Fed Composite IndexJUN</t>
         </is>
       </c>
       <c r="C1959" t="inlineStr"/>
       <c r="D1959" t="inlineStr">
         <is>
-          <t>436.6</t>
+          <t>-3</t>
         </is>
       </c>
       <c r="E1959" t="inlineStr"/>
       <c r="F1959" t="inlineStr">
         <is>
-          <t>436.2</t>
+          <t>-4</t>
         </is>
       </c>
       <c r="G1959" t="inlineStr">
@@ -51393,24 +51485,24 @@
     <row r="1960">
       <c r="A1960" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1960" t="inlineStr">
         <is>
-          <t>House Price Index MoMAPR</t>
+          <t>Kansas Fed Manufacturing IndexJUN</t>
         </is>
       </c>
       <c r="C1960" t="inlineStr"/>
       <c r="D1960" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>-10</t>
         </is>
       </c>
       <c r="E1960" t="inlineStr"/>
       <c r="F1960" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>-5</t>
         </is>
       </c>
       <c r="G1960" t="inlineStr">
@@ -51422,26 +51514,18 @@
     <row r="1961">
       <c r="A1961" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1961" t="inlineStr">
         <is>
-          <t>House Price Index YoYAPR</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1961" t="inlineStr"/>
-      <c r="D1961" t="inlineStr">
-        <is>
-          <t>3.7%</t>
-        </is>
-      </c>
+      <c r="D1961" t="inlineStr"/>
       <c r="E1961" t="inlineStr"/>
-      <c r="F1961" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
+      <c r="F1961" t="inlineStr"/>
       <c r="G1961" t="inlineStr">
         <is>
           <t>3</t>
@@ -51451,26 +51535,18 @@
     <row r="1962">
       <c r="A1962" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1962" t="inlineStr">
         <is>
-          <t>S&amp;P/Case-Shiller Home Price MoMAPR</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1962" t="inlineStr"/>
-      <c r="D1962" t="inlineStr">
-        <is>
-          <t>1.1%</t>
-        </is>
-      </c>
+      <c r="D1962" t="inlineStr"/>
       <c r="E1962" t="inlineStr"/>
-      <c r="F1962" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="F1962" t="inlineStr"/>
       <c r="G1962" t="inlineStr">
         <is>
           <t>3</t>
@@ -51480,55 +51556,43 @@
     <row r="1963">
       <c r="A1963" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1963" t="inlineStr">
         <is>
-          <t>CB Consumer ConfidenceJUN</t>
+          <t>15-Year Mortgage RateJUN/26</t>
         </is>
       </c>
       <c r="C1963" t="inlineStr"/>
-      <c r="D1963" t="inlineStr">
-        <is>
-          <t>98.0</t>
-        </is>
-      </c>
+      <c r="D1963" t="inlineStr"/>
       <c r="E1963" t="inlineStr"/>
-      <c r="F1963" t="inlineStr">
-        <is>
-          <t>97</t>
-        </is>
-      </c>
+      <c r="F1963" t="inlineStr"/>
       <c r="G1963" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1964">
       <c r="A1964" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1964" t="inlineStr">
         <is>
-          <t>Richmond Fed Manufacturing IndexJUN</t>
+          <t>30-Year Mortgage RateJUN/26</t>
         </is>
       </c>
       <c r="C1964" t="inlineStr"/>
       <c r="D1964" t="inlineStr">
         <is>
-          <t>-9</t>
+          <t>6.81%</t>
         </is>
       </c>
       <c r="E1964" t="inlineStr"/>
-      <c r="F1964" t="inlineStr">
-        <is>
-          <t>-7</t>
-        </is>
-      </c>
+      <c r="F1964" t="inlineStr"/>
       <c r="G1964" t="inlineStr">
         <is>
           <t>3</t>
@@ -51538,26 +51602,22 @@
     <row r="1965">
       <c r="A1965" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1965" t="inlineStr">
         <is>
-          <t>Richmond Fed Manufacturing Shipments IndexJUN</t>
+          <t>7-Year Note Auction</t>
         </is>
       </c>
       <c r="C1965" t="inlineStr"/>
       <c r="D1965" t="inlineStr">
         <is>
-          <t>-10</t>
+          <t>4.194%</t>
         </is>
       </c>
       <c r="E1965" t="inlineStr"/>
-      <c r="F1965" t="inlineStr">
-        <is>
-          <t>-8</t>
-        </is>
-      </c>
+      <c r="F1965" t="inlineStr"/>
       <c r="G1965" t="inlineStr">
         <is>
           <t>3</t>
@@ -51567,26 +51627,18 @@
     <row r="1966">
       <c r="A1966" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B1966" t="inlineStr">
         <is>
-          <t>Richmond Fed Services Revenues IndexJUN</t>
+          <t>Fed Balance SheetJUN/25</t>
         </is>
       </c>
       <c r="C1966" t="inlineStr"/>
-      <c r="D1966" t="inlineStr">
-        <is>
-          <t>-11</t>
-        </is>
-      </c>
+      <c r="D1966" t="inlineStr"/>
       <c r="E1966" t="inlineStr"/>
-      <c r="F1966" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
-      </c>
+      <c r="F1966" t="inlineStr"/>
       <c r="G1966" t="inlineStr">
         <is>
           <t>3</t>
@@ -51596,110 +51648,126 @@
     <row r="1967">
       <c r="A1967" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B1967" t="inlineStr">
-        <is>
-          <t>2-Year Note Auction</t>
-        </is>
-      </c>
+          <t>Friday June 27 2025</t>
+        </is>
+      </c>
+      <c r="B1967" t="inlineStr"/>
       <c r="C1967" t="inlineStr"/>
-      <c r="D1967" t="inlineStr">
-        <is>
-          <t>3.955%</t>
-        </is>
-      </c>
+      <c r="D1967" t="inlineStr"/>
       <c r="E1967" t="inlineStr"/>
       <c r="F1967" t="inlineStr"/>
-      <c r="G1967" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G1967" t="inlineStr"/>
     </row>
     <row r="1968">
       <c r="A1968" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1968" t="inlineStr">
         <is>
-          <t>Money SupplyMAY</t>
+          <t>Core PCE Price Index MoMMAY</t>
         </is>
       </c>
       <c r="C1968" t="inlineStr"/>
       <c r="D1968" t="inlineStr">
         <is>
-          <t>$21.86T</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="E1968" t="inlineStr"/>
-      <c r="F1968" t="inlineStr"/>
+      <c r="F1968" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="G1968" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1969">
       <c r="A1969" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1969" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeJUN/20</t>
+          <t>Personal Income MoMMAY</t>
         </is>
       </c>
       <c r="C1969" t="inlineStr"/>
       <c r="D1969" t="inlineStr">
         <is>
-          <t>-10.133M</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="E1969" t="inlineStr"/>
-      <c r="F1969" t="inlineStr"/>
+      <c r="F1969" t="inlineStr">
+        <is>
+          <t>0.6%</t>
+        </is>
+      </c>
       <c r="G1969" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1970">
       <c r="A1970" t="inlineStr">
         <is>
-          <t>Wednesday June 25 2025</t>
-        </is>
-      </c>
-      <c r="B1970" t="inlineStr"/>
+          <t>07:30 AM</t>
+        </is>
+      </c>
+      <c r="B1970" t="inlineStr">
+        <is>
+          <t>Personal Spending MoMMAY</t>
+        </is>
+      </c>
       <c r="C1970" t="inlineStr"/>
-      <c r="D1970" t="inlineStr"/>
+      <c r="D1970" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="E1970" t="inlineStr"/>
-      <c r="F1970" t="inlineStr"/>
-      <c r="G1970" t="inlineStr"/>
+      <c r="F1970" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="G1970" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="1971">
       <c r="A1971" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1971" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateJUN/20</t>
+          <t>PCE Price Index MoMMAY</t>
         </is>
       </c>
       <c r="C1971" t="inlineStr"/>
       <c r="D1971" t="inlineStr">
         <is>
-          <t>6.84%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="E1971" t="inlineStr"/>
-      <c r="F1971" t="inlineStr"/>
+      <c r="F1971" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="G1971" t="inlineStr">
         <is>
           <t>2</t>
@@ -51709,47 +51777,55 @@
     <row r="1972">
       <c r="A1972" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1972" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsJUN/20</t>
+          <t>PCE Price Index YoYMAY</t>
         </is>
       </c>
       <c r="C1972" t="inlineStr"/>
       <c r="D1972" t="inlineStr">
         <is>
-          <t>-2.6%</t>
+          <t>2.1%</t>
         </is>
       </c>
       <c r="E1972" t="inlineStr"/>
-      <c r="F1972" t="inlineStr"/>
+      <c r="F1972" t="inlineStr">
+        <is>
+          <t>2.2%</t>
+        </is>
+      </c>
       <c r="G1972" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1973">
       <c r="A1973" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1973" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexJUN/20</t>
+          <t>Core PCE Price Index YoYMAY</t>
         </is>
       </c>
       <c r="C1973" t="inlineStr"/>
       <c r="D1973" t="inlineStr">
         <is>
-          <t>248.1</t>
+          <t>2.5%</t>
         </is>
       </c>
       <c r="E1973" t="inlineStr"/>
-      <c r="F1973" t="inlineStr"/>
+      <c r="F1973" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="G1973" t="inlineStr">
         <is>
           <t>3</t>
@@ -51759,50 +51835,54 @@
     <row r="1974">
       <c r="A1974" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>08:15 AM</t>
         </is>
       </c>
       <c r="B1974" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexJUN/20</t>
+          <t>Fed Hammack Speech</t>
         </is>
       </c>
       <c r="C1974" t="inlineStr"/>
-      <c r="D1974" t="inlineStr">
-        <is>
-          <t>692.4</t>
-        </is>
-      </c>
+      <c r="D1974" t="inlineStr"/>
       <c r="E1974" t="inlineStr"/>
       <c r="F1974" t="inlineStr"/>
       <c r="G1974" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1975">
       <c r="A1975" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1975" t="inlineStr">
         <is>
-          <t>MBA Purchase IndexJUN/20</t>
+          <t>Michigan Consumer Sentiment FinalJUN</t>
         </is>
       </c>
       <c r="C1975" t="inlineStr"/>
       <c r="D1975" t="inlineStr">
         <is>
-          <t>165.8</t>
-        </is>
-      </c>
-      <c r="E1975" t="inlineStr"/>
-      <c r="F1975" t="inlineStr"/>
+          <t>52.2</t>
+        </is>
+      </c>
+      <c r="E1975" t="inlineStr">
+        <is>
+          <t>60.5</t>
+        </is>
+      </c>
+      <c r="F1975" t="inlineStr">
+        <is>
+          <t>60.5</t>
+        </is>
+      </c>
       <c r="G1975" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -51814,24 +51894,28 @@
       </c>
       <c r="B1976" t="inlineStr">
         <is>
-          <t>New Home SalesMAY</t>
+          <t>Michigan 5 Year Inflation Expectations FinalJUN</t>
         </is>
       </c>
       <c r="C1976" t="inlineStr"/>
       <c r="D1976" t="inlineStr">
         <is>
-          <t>0.743M</t>
-        </is>
-      </c>
-      <c r="E1976" t="inlineStr"/>
+          <t>4.2%</t>
+        </is>
+      </c>
+      <c r="E1976" t="inlineStr">
+        <is>
+          <t>4.1%</t>
+        </is>
+      </c>
       <c r="F1976" t="inlineStr">
         <is>
-          <t>0.7M</t>
+          <t>4.1%</t>
         </is>
       </c>
       <c r="G1976" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -51843,94 +51927,110 @@
       </c>
       <c r="B1977" t="inlineStr">
         <is>
-          <t>New Home Sales MoMMAY</t>
+          <t>Michigan Consumer Expectations FinalJUN</t>
         </is>
       </c>
       <c r="C1977" t="inlineStr"/>
       <c r="D1977" t="inlineStr">
         <is>
-          <t>10.9%</t>
-        </is>
-      </c>
-      <c r="E1977" t="inlineStr"/>
+          <t>47.9</t>
+        </is>
+      </c>
+      <c r="E1977" t="inlineStr">
+        <is>
+          <t>58.4</t>
+        </is>
+      </c>
       <c r="F1977" t="inlineStr">
         <is>
-          <t>-5.8%</t>
+          <t>58.4</t>
         </is>
       </c>
       <c r="G1977" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1978">
       <c r="A1978" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1978" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Stocks ChangeJUN/20</t>
+          <t>Michigan Current Conditions FinalJUN</t>
         </is>
       </c>
       <c r="C1978" t="inlineStr"/>
       <c r="D1978" t="inlineStr">
         <is>
-          <t>-11.473M</t>
-        </is>
-      </c>
-      <c r="E1978" t="inlineStr"/>
-      <c r="F1978" t="inlineStr"/>
+          <t>58.9</t>
+        </is>
+      </c>
+      <c r="E1978" t="inlineStr">
+        <is>
+          <t>63.7</t>
+        </is>
+      </c>
+      <c r="F1978" t="inlineStr">
+        <is>
+          <t>63.7</t>
+        </is>
+      </c>
       <c r="G1978" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1979">
       <c r="A1979" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1979" t="inlineStr">
         <is>
-          <t>EIA Gasoline Stocks ChangeJUN/20</t>
+          <t>Michigan Inflation Expectations FinalJUN</t>
         </is>
       </c>
       <c r="C1979" t="inlineStr"/>
       <c r="D1979" t="inlineStr">
         <is>
-          <t>0.209M</t>
-        </is>
-      </c>
-      <c r="E1979" t="inlineStr"/>
-      <c r="F1979" t="inlineStr"/>
+          <t>6.6%</t>
+        </is>
+      </c>
+      <c r="E1979" t="inlineStr">
+        <is>
+          <t>5.1%</t>
+        </is>
+      </c>
+      <c r="F1979" t="inlineStr">
+        <is>
+          <t>5.1%</t>
+        </is>
+      </c>
       <c r="G1979" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1980">
       <c r="A1980" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B1980" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Imports ChangeJUN/20</t>
+          <t>Baker Hughes Oil Rig CountJUN/27</t>
         </is>
       </c>
       <c r="C1980" t="inlineStr"/>
-      <c r="D1980" t="inlineStr">
-        <is>
-          <t>-1.747M</t>
-        </is>
-      </c>
+      <c r="D1980" t="inlineStr"/>
       <c r="E1980" t="inlineStr"/>
       <c r="F1980" t="inlineStr"/>
       <c r="G1980" t="inlineStr">
@@ -51942,20 +52042,16 @@
     <row r="1981">
       <c r="A1981" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B1981" t="inlineStr">
         <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeJUN/20</t>
+          <t>Baker Hughes Total Rigs CountJUN/27</t>
         </is>
       </c>
       <c r="C1981" t="inlineStr"/>
-      <c r="D1981" t="inlineStr">
-        <is>
-          <t>-0.995M</t>
-        </is>
-      </c>
+      <c r="D1981" t="inlineStr"/>
       <c r="E1981" t="inlineStr"/>
       <c r="F1981" t="inlineStr"/>
       <c r="G1981" t="inlineStr">
@@ -51967,1564 +52063,15 @@
     <row r="1982">
       <c r="A1982" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1982" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeJUN/20</t>
-        </is>
-      </c>
+          <t>Sunday June 29 2025</t>
+        </is>
+      </c>
+      <c r="B1982" t="inlineStr"/>
       <c r="C1982" t="inlineStr"/>
-      <c r="D1982" t="inlineStr">
-        <is>
-          <t>0.077M</t>
-        </is>
-      </c>
+      <c r="D1982" t="inlineStr"/>
       <c r="E1982" t="inlineStr"/>
       <c r="F1982" t="inlineStr"/>
-      <c r="G1982" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1983">
-      <c r="A1983" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1983" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeJUN/20</t>
-        </is>
-      </c>
-      <c r="C1983" t="inlineStr"/>
-      <c r="D1983" t="inlineStr">
-        <is>
-          <t>0.514M</t>
-        </is>
-      </c>
-      <c r="E1983" t="inlineStr"/>
-      <c r="F1983" t="inlineStr"/>
-      <c r="G1983" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1984">
-      <c r="A1984" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1984" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeJUN/20</t>
-        </is>
-      </c>
-      <c r="C1984" t="inlineStr"/>
-      <c r="D1984" t="inlineStr">
-        <is>
-          <t>0.386M</t>
-        </is>
-      </c>
-      <c r="E1984" t="inlineStr"/>
-      <c r="F1984" t="inlineStr"/>
-      <c r="G1984" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1985">
-      <c r="A1985" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1985" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeJUN/20</t>
-        </is>
-      </c>
-      <c r="C1985" t="inlineStr"/>
-      <c r="D1985" t="inlineStr">
-        <is>
-          <t>0.152M</t>
-        </is>
-      </c>
-      <c r="E1985" t="inlineStr"/>
-      <c r="F1985" t="inlineStr"/>
-      <c r="G1985" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1986">
-      <c r="A1986" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1986" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeJUN/20</t>
-        </is>
-      </c>
-      <c r="C1986" t="inlineStr"/>
-      <c r="D1986" t="inlineStr">
-        <is>
-          <t>-0.364M</t>
-        </is>
-      </c>
-      <c r="E1986" t="inlineStr"/>
-      <c r="F1986" t="inlineStr"/>
-      <c r="G1986" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1987">
-      <c r="A1987" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1987" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1987" t="inlineStr"/>
-      <c r="D1987" t="inlineStr"/>
-      <c r="E1987" t="inlineStr"/>
-      <c r="F1987" t="inlineStr"/>
-      <c r="G1987" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1988">
-      <c r="A1988" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B1988" t="inlineStr">
-        <is>
-          <t>5-Year Note Auction</t>
-        </is>
-      </c>
-      <c r="C1988" t="inlineStr"/>
-      <c r="D1988" t="inlineStr">
-        <is>
-          <t>4.071%</t>
-        </is>
-      </c>
-      <c r="E1988" t="inlineStr"/>
-      <c r="F1988" t="inlineStr"/>
-      <c r="G1988" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1989">
-      <c r="A1989" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1989" t="inlineStr">
-        <is>
-          <t>2-Year FRN Auction</t>
-        </is>
-      </c>
-      <c r="C1989" t="inlineStr"/>
-      <c r="D1989" t="inlineStr">
-        <is>
-          <t>0.144%</t>
-        </is>
-      </c>
-      <c r="E1989" t="inlineStr"/>
-      <c r="F1989" t="inlineStr"/>
-      <c r="G1989" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1990">
-      <c r="A1990" t="inlineStr"/>
-      <c r="B1990" t="inlineStr">
-        <is>
-          <t>Building Permits FinalMAY</t>
-        </is>
-      </c>
-      <c r="C1990" t="inlineStr"/>
-      <c r="D1990" t="inlineStr">
-        <is>
-          <t>1.422M</t>
-        </is>
-      </c>
-      <c r="E1990" t="inlineStr">
-        <is>
-          <t>1.393M</t>
-        </is>
-      </c>
-      <c r="F1990" t="inlineStr">
-        <is>
-          <t>1.393M</t>
-        </is>
-      </c>
-      <c r="G1990" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1991">
-      <c r="A1991" t="inlineStr"/>
-      <c r="B1991" t="inlineStr">
-        <is>
-          <t>Building Permits MoM FinalMAY</t>
-        </is>
-      </c>
-      <c r="C1991" t="inlineStr"/>
-      <c r="D1991" t="inlineStr">
-        <is>
-          <t>-4%</t>
-        </is>
-      </c>
-      <c r="E1991" t="inlineStr">
-        <is>
-          <t>-2%</t>
-        </is>
-      </c>
-      <c r="F1991" t="inlineStr">
-        <is>
-          <t>-2.0%</t>
-        </is>
-      </c>
-      <c r="G1991" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1992">
-      <c r="A1992" t="inlineStr">
-        <is>
-          <t>Thursday June 26 2025</t>
-        </is>
-      </c>
-      <c r="B1992" t="inlineStr"/>
-      <c r="C1992" t="inlineStr"/>
-      <c r="D1992" t="inlineStr"/>
-      <c r="E1992" t="inlineStr"/>
-      <c r="F1992" t="inlineStr"/>
-      <c r="G1992" t="inlineStr"/>
-    </row>
-    <row r="1993">
-      <c r="A1993" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B1993" t="inlineStr">
-        <is>
-          <t>Fed Barkin Speech</t>
-        </is>
-      </c>
-      <c r="C1993" t="inlineStr"/>
-      <c r="D1993" t="inlineStr"/>
-      <c r="E1993" t="inlineStr"/>
-      <c r="F1993" t="inlineStr"/>
-      <c r="G1993" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1994">
-      <c r="A1994" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1994" t="inlineStr">
-        <is>
-          <t>Durable Goods Orders MoMMAY</t>
-        </is>
-      </c>
-      <c r="C1994" t="inlineStr"/>
-      <c r="D1994" t="inlineStr">
-        <is>
-          <t>-6.3%</t>
-        </is>
-      </c>
-      <c r="E1994" t="inlineStr"/>
-      <c r="F1994" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G1994" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1995">
-      <c r="A1995" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1995" t="inlineStr">
-        <is>
-          <t>GDP Growth Rate QoQ FinalQ1</t>
-        </is>
-      </c>
-      <c r="C1995" t="inlineStr"/>
-      <c r="D1995" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="E1995" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="F1995" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="G1995" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1996">
-      <c r="A1996" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1996" t="inlineStr">
-        <is>
-          <t>Chicago Fed National Activity IndexMAY</t>
-        </is>
-      </c>
-      <c r="C1996" t="inlineStr"/>
-      <c r="D1996" t="inlineStr">
-        <is>
-          <t>-0.25</t>
-        </is>
-      </c>
-      <c r="E1996" t="inlineStr"/>
-      <c r="F1996" t="inlineStr">
-        <is>
-          <t>-0.1</t>
-        </is>
-      </c>
-      <c r="G1996" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1997">
-      <c r="A1997" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1997" t="inlineStr">
-        <is>
-          <t>Corporate Profits QoQ FinalQ1</t>
-        </is>
-      </c>
-      <c r="C1997" t="inlineStr"/>
-      <c r="D1997" t="inlineStr">
-        <is>
-          <t>5.9%</t>
-        </is>
-      </c>
-      <c r="E1997" t="inlineStr">
-        <is>
-          <t>-3.6%</t>
-        </is>
-      </c>
-      <c r="F1997" t="inlineStr">
-        <is>
-          <t>-3.6%</t>
-        </is>
-      </c>
-      <c r="G1997" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1998">
-      <c r="A1998" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1998" t="inlineStr">
-        <is>
-          <t>Durable Goods Orders Ex Transp MoMMAY</t>
-        </is>
-      </c>
-      <c r="C1998" t="inlineStr"/>
-      <c r="D1998" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E1998" t="inlineStr"/>
-      <c r="F1998" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="G1998" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1999">
-      <c r="A1999" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1999" t="inlineStr">
-        <is>
-          <t>GDP Price Index QoQ FinalQ1</t>
-        </is>
-      </c>
-      <c r="C1999" t="inlineStr"/>
-      <c r="D1999" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
-      <c r="E1999" t="inlineStr">
-        <is>
-          <t>3.7%</t>
-        </is>
-      </c>
-      <c r="F1999" t="inlineStr">
-        <is>
-          <t>3.7%</t>
-        </is>
-      </c>
-      <c r="G1999" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2000">
-      <c r="A2000" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2000" t="inlineStr">
-        <is>
-          <t>Goods Trade Balance AdvMAY</t>
-        </is>
-      </c>
-      <c r="C2000" t="inlineStr"/>
-      <c r="D2000" t="inlineStr">
-        <is>
-          <t>$-87.62B</t>
-        </is>
-      </c>
-      <c r="E2000" t="inlineStr"/>
-      <c r="F2000" t="inlineStr">
-        <is>
-          <t>$-81.0B</t>
-        </is>
-      </c>
-      <c r="G2000" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2001">
-      <c r="A2001" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2001" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsJUN/21</t>
-        </is>
-      </c>
-      <c r="C2001" t="inlineStr"/>
-      <c r="D2001" t="inlineStr">
-        <is>
-          <t>245K</t>
-        </is>
-      </c>
-      <c r="E2001" t="inlineStr"/>
-      <c r="F2001" t="inlineStr">
-        <is>
-          <t>247.0K</t>
-        </is>
-      </c>
-      <c r="G2001" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2002">
-      <c r="A2002" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2002" t="inlineStr">
-        <is>
-          <t>Retail Inventories Ex Autos MoM AdvMAY</t>
-        </is>
-      </c>
-      <c r="C2002" t="inlineStr"/>
-      <c r="D2002" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E2002" t="inlineStr"/>
-      <c r="F2002" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G2002" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2003">
-      <c r="A2003" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2003" t="inlineStr">
-        <is>
-          <t>Wholesale Inventories MoM AdvMAY</t>
-        </is>
-      </c>
-      <c r="C2003" t="inlineStr"/>
-      <c r="D2003" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E2003" t="inlineStr"/>
-      <c r="F2003" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G2003" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2004">
-      <c r="A2004" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2004" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsJUN/14</t>
-        </is>
-      </c>
-      <c r="C2004" t="inlineStr"/>
-      <c r="D2004" t="inlineStr">
-        <is>
-          <t>1945K</t>
-        </is>
-      </c>
-      <c r="E2004" t="inlineStr"/>
-      <c r="F2004" t="inlineStr">
-        <is>
-          <t>1947.0K</t>
-        </is>
-      </c>
-      <c r="G2004" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2005">
-      <c r="A2005" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2005" t="inlineStr">
-        <is>
-          <t>Core PCE Prices QoQ FinalQ1</t>
-        </is>
-      </c>
-      <c r="C2005" t="inlineStr"/>
-      <c r="D2005" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="E2005" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="F2005" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="G2005" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2006">
-      <c r="A2006" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2006" t="inlineStr">
-        <is>
-          <t>Durable Goods Orders ex Defense MoMMAY</t>
-        </is>
-      </c>
-      <c r="C2006" t="inlineStr"/>
-      <c r="D2006" t="inlineStr">
-        <is>
-          <t>-7.5%</t>
-        </is>
-      </c>
-      <c r="E2006" t="inlineStr"/>
-      <c r="F2006" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G2006" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2007">
-      <c r="A2007" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2007" t="inlineStr">
-        <is>
-          <t>GDP Sales QoQ FinalQ1</t>
-        </is>
-      </c>
-      <c r="C2007" t="inlineStr"/>
-      <c r="D2007" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="E2007" t="inlineStr">
-        <is>
-          <t>-2.9%</t>
-        </is>
-      </c>
-      <c r="F2007" t="inlineStr">
-        <is>
-          <t>-2.9%</t>
-        </is>
-      </c>
-      <c r="G2007" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2008">
-      <c r="A2008" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2008" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageJUN/21</t>
-        </is>
-      </c>
-      <c r="C2008" t="inlineStr"/>
-      <c r="D2008" t="inlineStr">
-        <is>
-          <t>245.5K</t>
-        </is>
-      </c>
-      <c r="E2008" t="inlineStr"/>
-      <c r="F2008" t="inlineStr">
-        <is>
-          <t>247.0K</t>
-        </is>
-      </c>
-      <c r="G2008" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2009">
-      <c r="A2009" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2009" t="inlineStr">
-        <is>
-          <t>Non Defense Goods Orders Ex AirMAY</t>
-        </is>
-      </c>
-      <c r="C2009" t="inlineStr"/>
-      <c r="D2009" t="inlineStr">
-        <is>
-          <t>-1.3%</t>
-        </is>
-      </c>
-      <c r="E2009" t="inlineStr"/>
-      <c r="F2009" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G2009" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2010">
-      <c r="A2010" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2010" t="inlineStr">
-        <is>
-          <t>PCE Prices QoQ FinalQ1</t>
-        </is>
-      </c>
-      <c r="C2010" t="inlineStr"/>
-      <c r="D2010" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="E2010" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
-      <c r="F2010" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
-      <c r="G2010" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2011">
-      <c r="A2011" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2011" t="inlineStr">
-        <is>
-          <t>Real Consumer Spending QoQ FinalQ1</t>
-        </is>
-      </c>
-      <c r="C2011" t="inlineStr"/>
-      <c r="D2011" t="inlineStr">
-        <is>
-          <t>4%</t>
-        </is>
-      </c>
-      <c r="E2011" t="inlineStr">
-        <is>
-          <t>1.2%</t>
-        </is>
-      </c>
-      <c r="F2011" t="inlineStr">
-        <is>
-          <t>1.2%</t>
-        </is>
-      </c>
-      <c r="G2011" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2012">
-      <c r="A2012" t="inlineStr">
-        <is>
-          <t>08:00 AM</t>
-        </is>
-      </c>
-      <c r="B2012" t="inlineStr">
-        <is>
-          <t>Fed Hammack Speech</t>
-        </is>
-      </c>
-      <c r="C2012" t="inlineStr"/>
-      <c r="D2012" t="inlineStr"/>
-      <c r="E2012" t="inlineStr"/>
-      <c r="F2012" t="inlineStr"/>
-      <c r="G2012" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2013">
-      <c r="A2013" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B2013" t="inlineStr">
-        <is>
-          <t>Pending Home Sales MoMMAY</t>
-        </is>
-      </c>
-      <c r="C2013" t="inlineStr"/>
-      <c r="D2013" t="inlineStr">
-        <is>
-          <t>-6.3%</t>
-        </is>
-      </c>
-      <c r="E2013" t="inlineStr"/>
-      <c r="F2013" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
-      <c r="G2013" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2014">
-      <c r="A2014" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B2014" t="inlineStr">
-        <is>
-          <t>Pending Home Sales YoYMAY</t>
-        </is>
-      </c>
-      <c r="C2014" t="inlineStr"/>
-      <c r="D2014" t="inlineStr">
-        <is>
-          <t>-2.5%</t>
-        </is>
-      </c>
-      <c r="E2014" t="inlineStr"/>
-      <c r="F2014" t="inlineStr">
-        <is>
-          <t>-2.1%</t>
-        </is>
-      </c>
-      <c r="G2014" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2015">
-      <c r="A2015" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B2015" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeJUN/20</t>
-        </is>
-      </c>
-      <c r="C2015" t="inlineStr"/>
-      <c r="D2015" t="inlineStr">
-        <is>
-          <t>95Bcf</t>
-        </is>
-      </c>
-      <c r="E2015" t="inlineStr"/>
-      <c r="F2015" t="inlineStr"/>
-      <c r="G2015" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2016">
-      <c r="A2016" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B2016" t="inlineStr">
-        <is>
-          <t>Kansas Fed Composite IndexJUN</t>
-        </is>
-      </c>
-      <c r="C2016" t="inlineStr"/>
-      <c r="D2016" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="E2016" t="inlineStr"/>
-      <c r="F2016" t="inlineStr">
-        <is>
-          <t>-4</t>
-        </is>
-      </c>
-      <c r="G2016" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2017">
-      <c r="A2017" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B2017" t="inlineStr">
-        <is>
-          <t>Kansas Fed Manufacturing IndexJUN</t>
-        </is>
-      </c>
-      <c r="C2017" t="inlineStr"/>
-      <c r="D2017" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
-      </c>
-      <c r="E2017" t="inlineStr"/>
-      <c r="F2017" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="G2017" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2018">
-      <c r="A2018" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B2018" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C2018" t="inlineStr"/>
-      <c r="D2018" t="inlineStr"/>
-      <c r="E2018" t="inlineStr"/>
-      <c r="F2018" t="inlineStr"/>
-      <c r="G2018" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2019">
-      <c r="A2019" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B2019" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C2019" t="inlineStr"/>
-      <c r="D2019" t="inlineStr"/>
-      <c r="E2019" t="inlineStr"/>
-      <c r="F2019" t="inlineStr"/>
-      <c r="G2019" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2020">
-      <c r="A2020" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B2020" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateJUN/26</t>
-        </is>
-      </c>
-      <c r="C2020" t="inlineStr"/>
-      <c r="D2020" t="inlineStr"/>
-      <c r="E2020" t="inlineStr"/>
-      <c r="F2020" t="inlineStr"/>
-      <c r="G2020" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2021">
-      <c r="A2021" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B2021" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateJUN/26</t>
-        </is>
-      </c>
-      <c r="C2021" t="inlineStr"/>
-      <c r="D2021" t="inlineStr">
-        <is>
-          <t>6.81%</t>
-        </is>
-      </c>
-      <c r="E2021" t="inlineStr"/>
-      <c r="F2021" t="inlineStr"/>
-      <c r="G2021" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2022">
-      <c r="A2022" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B2022" t="inlineStr">
-        <is>
-          <t>7-Year Note Auction</t>
-        </is>
-      </c>
-      <c r="C2022" t="inlineStr"/>
-      <c r="D2022" t="inlineStr">
-        <is>
-          <t>4.194%</t>
-        </is>
-      </c>
-      <c r="E2022" t="inlineStr"/>
-      <c r="F2022" t="inlineStr"/>
-      <c r="G2022" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2023">
-      <c r="A2023" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B2023" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetJUN/25</t>
-        </is>
-      </c>
-      <c r="C2023" t="inlineStr"/>
-      <c r="D2023" t="inlineStr"/>
-      <c r="E2023" t="inlineStr"/>
-      <c r="F2023" t="inlineStr"/>
-      <c r="G2023" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2024">
-      <c r="A2024" t="inlineStr">
-        <is>
-          <t>Friday June 27 2025</t>
-        </is>
-      </c>
-      <c r="B2024" t="inlineStr"/>
-      <c r="C2024" t="inlineStr"/>
-      <c r="D2024" t="inlineStr"/>
-      <c r="E2024" t="inlineStr"/>
-      <c r="F2024" t="inlineStr"/>
-      <c r="G2024" t="inlineStr"/>
-    </row>
-    <row r="2025">
-      <c r="A2025" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2025" t="inlineStr">
-        <is>
-          <t>Core PCE Price Index MoMMAY</t>
-        </is>
-      </c>
-      <c r="C2025" t="inlineStr"/>
-      <c r="D2025" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E2025" t="inlineStr"/>
-      <c r="F2025" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G2025" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2026">
-      <c r="A2026" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2026" t="inlineStr">
-        <is>
-          <t>Personal Income MoMMAY</t>
-        </is>
-      </c>
-      <c r="C2026" t="inlineStr"/>
-      <c r="D2026" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="E2026" t="inlineStr"/>
-      <c r="F2026" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="G2026" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2027">
-      <c r="A2027" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2027" t="inlineStr">
-        <is>
-          <t>Personal Spending MoMMAY</t>
-        </is>
-      </c>
-      <c r="C2027" t="inlineStr"/>
-      <c r="D2027" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E2027" t="inlineStr"/>
-      <c r="F2027" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G2027" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2028">
-      <c r="A2028" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2028" t="inlineStr">
-        <is>
-          <t>PCE Price Index MoMMAY</t>
-        </is>
-      </c>
-      <c r="C2028" t="inlineStr"/>
-      <c r="D2028" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E2028" t="inlineStr"/>
-      <c r="F2028" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G2028" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2029">
-      <c r="A2029" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2029" t="inlineStr">
-        <is>
-          <t>PCE Price Index YoYMAY</t>
-        </is>
-      </c>
-      <c r="C2029" t="inlineStr"/>
-      <c r="D2029" t="inlineStr">
-        <is>
-          <t>2.1%</t>
-        </is>
-      </c>
-      <c r="E2029" t="inlineStr"/>
-      <c r="F2029" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="G2029" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2030">
-      <c r="A2030" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2030" t="inlineStr">
-        <is>
-          <t>Core PCE Price Index YoYMAY</t>
-        </is>
-      </c>
-      <c r="C2030" t="inlineStr"/>
-      <c r="D2030" t="inlineStr">
-        <is>
-          <t>2.5%</t>
-        </is>
-      </c>
-      <c r="E2030" t="inlineStr"/>
-      <c r="F2030" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="G2030" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2031">
-      <c r="A2031" t="inlineStr">
-        <is>
-          <t>08:15 AM</t>
-        </is>
-      </c>
-      <c r="B2031" t="inlineStr">
-        <is>
-          <t>Fed Hammack Speech</t>
-        </is>
-      </c>
-      <c r="C2031" t="inlineStr"/>
-      <c r="D2031" t="inlineStr"/>
-      <c r="E2031" t="inlineStr"/>
-      <c r="F2031" t="inlineStr"/>
-      <c r="G2031" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2032">
-      <c r="A2032" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B2032" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Sentiment FinalJUN</t>
-        </is>
-      </c>
-      <c r="C2032" t="inlineStr"/>
-      <c r="D2032" t="inlineStr">
-        <is>
-          <t>52.2</t>
-        </is>
-      </c>
-      <c r="E2032" t="inlineStr">
-        <is>
-          <t>60.5</t>
-        </is>
-      </c>
-      <c r="F2032" t="inlineStr">
-        <is>
-          <t>60.5</t>
-        </is>
-      </c>
-      <c r="G2032" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2033">
-      <c r="A2033" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B2033" t="inlineStr">
-        <is>
-          <t>Michigan 5 Year Inflation Expectations FinalJUN</t>
-        </is>
-      </c>
-      <c r="C2033" t="inlineStr"/>
-      <c r="D2033" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="E2033" t="inlineStr">
-        <is>
-          <t>4.1%</t>
-        </is>
-      </c>
-      <c r="F2033" t="inlineStr">
-        <is>
-          <t>4.1%</t>
-        </is>
-      </c>
-      <c r="G2033" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2034">
-      <c r="A2034" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B2034" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Expectations FinalJUN</t>
-        </is>
-      </c>
-      <c r="C2034" t="inlineStr"/>
-      <c r="D2034" t="inlineStr">
-        <is>
-          <t>47.9</t>
-        </is>
-      </c>
-      <c r="E2034" t="inlineStr">
-        <is>
-          <t>58.4</t>
-        </is>
-      </c>
-      <c r="F2034" t="inlineStr">
-        <is>
-          <t>58.4</t>
-        </is>
-      </c>
-      <c r="G2034" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2035">
-      <c r="A2035" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B2035" t="inlineStr">
-        <is>
-          <t>Michigan Current Conditions FinalJUN</t>
-        </is>
-      </c>
-      <c r="C2035" t="inlineStr"/>
-      <c r="D2035" t="inlineStr">
-        <is>
-          <t>58.9</t>
-        </is>
-      </c>
-      <c r="E2035" t="inlineStr">
-        <is>
-          <t>63.7</t>
-        </is>
-      </c>
-      <c r="F2035" t="inlineStr">
-        <is>
-          <t>63.7</t>
-        </is>
-      </c>
-      <c r="G2035" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2036">
-      <c r="A2036" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B2036" t="inlineStr">
-        <is>
-          <t>Michigan Inflation Expectations FinalJUN</t>
-        </is>
-      </c>
-      <c r="C2036" t="inlineStr"/>
-      <c r="D2036" t="inlineStr">
-        <is>
-          <t>6.6%</t>
-        </is>
-      </c>
-      <c r="E2036" t="inlineStr">
-        <is>
-          <t>5.1%</t>
-        </is>
-      </c>
-      <c r="F2036" t="inlineStr">
-        <is>
-          <t>5.1%</t>
-        </is>
-      </c>
-      <c r="G2036" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2037">
-      <c r="A2037" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B2037" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountJUN/27</t>
-        </is>
-      </c>
-      <c r="C2037" t="inlineStr"/>
-      <c r="D2037" t="inlineStr"/>
-      <c r="E2037" t="inlineStr"/>
-      <c r="F2037" t="inlineStr"/>
-      <c r="G2037" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2038">
-      <c r="A2038" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B2038" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountJUN/27</t>
-        </is>
-      </c>
-      <c r="C2038" t="inlineStr"/>
-      <c r="D2038" t="inlineStr"/>
-      <c r="E2038" t="inlineStr"/>
-      <c r="F2038" t="inlineStr"/>
-      <c r="G2038" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2039">
-      <c r="A2039" t="inlineStr">
-        <is>
-          <t>Sunday June 29 2025</t>
-        </is>
-      </c>
-      <c r="B2039" t="inlineStr"/>
-      <c r="C2039" t="inlineStr"/>
-      <c r="D2039" t="inlineStr"/>
-      <c r="E2039" t="inlineStr"/>
-      <c r="F2039" t="inlineStr"/>
-      <c r="G2039" t="inlineStr"/>
+      <c r="G1982" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-06-29.xlsx
+++ b/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-06-29.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2039"/>
+  <dimension ref="A1:G1984"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50766,98 +50766,94 @@
       <c r="G1934" t="inlineStr"/>
     </row>
     <row r="1935">
-      <c r="A1935" t="inlineStr">
-        <is>
-          <t>Friday June 20 2025</t>
-        </is>
-      </c>
-      <c r="B1935" t="inlineStr"/>
+      <c r="A1935" t="inlineStr"/>
+      <c r="B1935" t="inlineStr">
+        <is>
+          <t>Building Permits FinalMAY</t>
+        </is>
+      </c>
       <c r="C1935" t="inlineStr"/>
-      <c r="D1935" t="inlineStr"/>
-      <c r="E1935" t="inlineStr"/>
-      <c r="F1935" t="inlineStr"/>
-      <c r="G1935" t="inlineStr"/>
+      <c r="D1935" t="inlineStr">
+        <is>
+          <t>1.422M</t>
+        </is>
+      </c>
+      <c r="E1935" t="inlineStr">
+        <is>
+          <t>1.393M</t>
+        </is>
+      </c>
+      <c r="F1935" t="inlineStr">
+        <is>
+          <t>1.393M</t>
+        </is>
+      </c>
+      <c r="G1935" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1936">
-      <c r="A1936" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
+      <c r="A1936" t="inlineStr"/>
       <c r="B1936" t="inlineStr">
         <is>
-          <t>Philadelphia Fed Manufacturing IndexJUN</t>
+          <t>Building Permits MoM FinalMAY</t>
         </is>
       </c>
       <c r="C1936" t="inlineStr"/>
       <c r="D1936" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>-4%</t>
         </is>
       </c>
       <c r="E1936" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>-2%</t>
         </is>
       </c>
       <c r="F1936" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>-2.0%</t>
         </is>
       </c>
       <c r="G1936" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1937">
       <c r="A1937" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1937" t="inlineStr">
-        <is>
-          <t>Philly Fed Business ConditionsJUN</t>
-        </is>
-      </c>
+          <t>Thursday June 26 2025</t>
+        </is>
+      </c>
+      <c r="B1937" t="inlineStr"/>
       <c r="C1937" t="inlineStr"/>
-      <c r="D1937" t="inlineStr">
-        <is>
-          <t>47.2</t>
-        </is>
-      </c>
+      <c r="D1937" t="inlineStr"/>
       <c r="E1937" t="inlineStr"/>
       <c r="F1937" t="inlineStr"/>
-      <c r="G1937" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G1937" t="inlineStr"/>
     </row>
     <row r="1938">
       <c r="A1938" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1938" t="inlineStr">
         <is>
-          <t>Philly Fed CAPEX IndexJUN</t>
+          <t>Fed Barkin Speech</t>
         </is>
       </c>
       <c r="C1938" t="inlineStr"/>
-      <c r="D1938" t="inlineStr">
-        <is>
-          <t>27.00</t>
-        </is>
-      </c>
+      <c r="D1938" t="inlineStr"/>
       <c r="E1938" t="inlineStr"/>
       <c r="F1938" t="inlineStr"/>
       <c r="G1938" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -50869,20 +50865,24 @@
       </c>
       <c r="B1939" t="inlineStr">
         <is>
-          <t>Philly Fed EmploymentJUN</t>
+          <t>Durable Goods Orders MoMMAY</t>
         </is>
       </c>
       <c r="C1939" t="inlineStr"/>
       <c r="D1939" t="inlineStr">
         <is>
-          <t>16.5</t>
+          <t>-6.3%</t>
         </is>
       </c>
       <c r="E1939" t="inlineStr"/>
-      <c r="F1939" t="inlineStr"/>
+      <c r="F1939" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="G1939" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -50894,20 +50894,28 @@
       </c>
       <c r="B1940" t="inlineStr">
         <is>
-          <t>Philly Fed New OrdersJUN</t>
+          <t>GDP Growth Rate QoQ FinalQ1</t>
         </is>
       </c>
       <c r="C1940" t="inlineStr"/>
       <c r="D1940" t="inlineStr">
         <is>
-          <t>7.5</t>
-        </is>
-      </c>
-      <c r="E1940" t="inlineStr"/>
-      <c r="F1940" t="inlineStr"/>
+          <t>2.4%</t>
+        </is>
+      </c>
+      <c r="E1940" t="inlineStr">
+        <is>
+          <t>-0.2%</t>
+        </is>
+      </c>
+      <c r="F1940" t="inlineStr">
+        <is>
+          <t>-0.2%</t>
+        </is>
+      </c>
       <c r="G1940" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -50919,178 +50927,230 @@
       </c>
       <c r="B1941" t="inlineStr">
         <is>
-          <t>Philly Fed Prices PaidJUN</t>
+          <t>Chicago Fed National Activity IndexMAY</t>
         </is>
       </c>
       <c r="C1941" t="inlineStr"/>
       <c r="D1941" t="inlineStr">
         <is>
-          <t>59.80</t>
+          <t>-0.25</t>
         </is>
       </c>
       <c r="E1941" t="inlineStr"/>
-      <c r="F1941" t="inlineStr"/>
+      <c r="F1941" t="inlineStr">
+        <is>
+          <t>-0.1</t>
+        </is>
+      </c>
       <c r="G1941" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1942">
       <c r="A1942" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1942" t="inlineStr">
         <is>
-          <t>CB Leading Index MoMMAY</t>
+          <t>Corporate Profits QoQ FinalQ1</t>
         </is>
       </c>
       <c r="C1942" t="inlineStr"/>
       <c r="D1942" t="inlineStr">
         <is>
-          <t>-1%</t>
+          <t>5.9%</t>
         </is>
       </c>
       <c r="E1942" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>-3.6%</t>
         </is>
       </c>
       <c r="F1942" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>-3.6%</t>
         </is>
       </c>
       <c r="G1942" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1943">
       <c r="A1943" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1943" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJUN/20</t>
+          <t>Durable Goods Orders Ex Transp MoMMAY</t>
         </is>
       </c>
       <c r="C1943" t="inlineStr"/>
       <c r="D1943" t="inlineStr">
         <is>
-          <t>439</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="E1943" t="inlineStr"/>
-      <c r="F1943" t="inlineStr"/>
+      <c r="F1943" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
       <c r="G1943" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1944">
       <c r="A1944" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1944" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJUN/20</t>
+          <t>GDP Price Index QoQ FinalQ1</t>
         </is>
       </c>
       <c r="C1944" t="inlineStr"/>
       <c r="D1944" t="inlineStr">
         <is>
-          <t>555</t>
-        </is>
-      </c>
-      <c r="E1944" t="inlineStr"/>
-      <c r="F1944" t="inlineStr"/>
+          <t>2.3%</t>
+        </is>
+      </c>
+      <c r="E1944" t="inlineStr">
+        <is>
+          <t>3.7%</t>
+        </is>
+      </c>
+      <c r="F1944" t="inlineStr">
+        <is>
+          <t>3.7%</t>
+        </is>
+      </c>
       <c r="G1944" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1945">
       <c r="A1945" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1945" t="inlineStr">
         <is>
-          <t>Fed Balance SheetJUN/18</t>
+          <t>Goods Trade Balance AdvMAY</t>
         </is>
       </c>
       <c r="C1945" t="inlineStr"/>
       <c r="D1945" t="inlineStr">
         <is>
-          <t>$6.68T</t>
+          <t>$-87.62B</t>
         </is>
       </c>
       <c r="E1945" t="inlineStr"/>
-      <c r="F1945" t="inlineStr"/>
+      <c r="F1945" t="inlineStr">
+        <is>
+          <t>$-81.0B</t>
+        </is>
+      </c>
       <c r="G1945" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1946">
       <c r="A1946" t="inlineStr">
         <is>
-          <t>Sunday June 22 2025</t>
-        </is>
-      </c>
-      <c r="B1946" t="inlineStr"/>
+          <t>07:30 AM</t>
+        </is>
+      </c>
+      <c r="B1946" t="inlineStr">
+        <is>
+          <t>Initial Jobless ClaimsJUN/21</t>
+        </is>
+      </c>
       <c r="C1946" t="inlineStr"/>
-      <c r="D1946" t="inlineStr"/>
+      <c r="D1946" t="inlineStr">
+        <is>
+          <t>245K</t>
+        </is>
+      </c>
       <c r="E1946" t="inlineStr"/>
-      <c r="F1946" t="inlineStr"/>
-      <c r="G1946" t="inlineStr"/>
+      <c r="F1946" t="inlineStr">
+        <is>
+          <t>247.0K</t>
+        </is>
+      </c>
+      <c r="G1946" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1947">
       <c r="A1947" t="inlineStr">
         <is>
-          <t>Monday June 23 2025</t>
-        </is>
-      </c>
-      <c r="B1947" t="inlineStr"/>
+          <t>07:30 AM</t>
+        </is>
+      </c>
+      <c r="B1947" t="inlineStr">
+        <is>
+          <t>Retail Inventories Ex Autos MoM AdvMAY</t>
+        </is>
+      </c>
       <c r="C1947" t="inlineStr"/>
-      <c r="D1947" t="inlineStr"/>
+      <c r="D1947" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="E1947" t="inlineStr"/>
-      <c r="F1947" t="inlineStr"/>
-      <c r="G1947" t="inlineStr"/>
+      <c r="F1947" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="G1947" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1948">
       <c r="A1948" t="inlineStr">
         <is>
-          <t>08:45 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1948" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FlashJUN</t>
+          <t>Wholesale Inventories MoM AdvMAY</t>
         </is>
       </c>
       <c r="C1948" t="inlineStr"/>
       <c r="D1948" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="E1948" t="inlineStr"/>
       <c r="F1948" t="inlineStr">
         <is>
-          <t>53.1</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="G1948" t="inlineStr">
@@ -51102,138 +51162,150 @@
     <row r="1949">
       <c r="A1949" t="inlineStr">
         <is>
-          <t>08:45 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1949" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FlashJUN</t>
+          <t>Continuing Jobless ClaimsJUN/14</t>
         </is>
       </c>
       <c r="C1949" t="inlineStr"/>
       <c r="D1949" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>1945K</t>
         </is>
       </c>
       <c r="E1949" t="inlineStr"/>
       <c r="F1949" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>1947.0K</t>
         </is>
       </c>
       <c r="G1949" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1950">
       <c r="A1950" t="inlineStr">
         <is>
-          <t>08:45 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1950" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FlashJUN</t>
+          <t>Core PCE Prices QoQ FinalQ1</t>
         </is>
       </c>
       <c r="C1950" t="inlineStr"/>
       <c r="D1950" t="inlineStr">
         <is>
-          <t>53.7</t>
-        </is>
-      </c>
-      <c r="E1950" t="inlineStr"/>
+          <t>2.6%</t>
+        </is>
+      </c>
+      <c r="E1950" t="inlineStr">
+        <is>
+          <t>3.4%</t>
+        </is>
+      </c>
       <c r="F1950" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="G1950" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1951">
       <c r="A1951" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1951" t="inlineStr">
         <is>
-          <t>Existing Home SalesMAY</t>
+          <t>Durable Goods Orders ex Defense MoMMAY</t>
         </is>
       </c>
       <c r="C1951" t="inlineStr"/>
       <c r="D1951" t="inlineStr">
         <is>
-          <t>4M</t>
+          <t>-7.5%</t>
         </is>
       </c>
       <c r="E1951" t="inlineStr"/>
       <c r="F1951" t="inlineStr">
         <is>
-          <t>3.9M</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="G1951" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1952">
       <c r="A1952" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1952" t="inlineStr">
         <is>
-          <t>Existing Home Sales MoMMAY</t>
+          <t>GDP Sales QoQ FinalQ1</t>
         </is>
       </c>
       <c r="C1952" t="inlineStr"/>
       <c r="D1952" t="inlineStr">
         <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="E1952" t="inlineStr"/>
+          <t>3.3%</t>
+        </is>
+      </c>
+      <c r="E1952" t="inlineStr">
+        <is>
+          <t>-2.9%</t>
+        </is>
+      </c>
       <c r="F1952" t="inlineStr">
         <is>
-          <t>-2.5%</t>
+          <t>-2.9%</t>
         </is>
       </c>
       <c r="G1952" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1953">
       <c r="A1953" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1953" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Jobless Claims 4-week AverageJUN/21</t>
         </is>
       </c>
       <c r="C1953" t="inlineStr"/>
       <c r="D1953" t="inlineStr">
         <is>
-          <t>4.240%</t>
+          <t>245.5K</t>
         </is>
       </c>
       <c r="E1953" t="inlineStr"/>
-      <c r="F1953" t="inlineStr"/>
+      <c r="F1953" t="inlineStr">
+        <is>
+          <t>247.0K</t>
+        </is>
+      </c>
       <c r="G1953" t="inlineStr">
         <is>
           <t>3</t>
@@ -51243,22 +51315,26 @@
     <row r="1954">
       <c r="A1954" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1954" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Non Defense Goods Orders Ex AirMAY</t>
         </is>
       </c>
       <c r="C1954" t="inlineStr"/>
       <c r="D1954" t="inlineStr">
         <is>
-          <t>4.155%</t>
+          <t>-1.3%</t>
         </is>
       </c>
       <c r="E1954" t="inlineStr"/>
-      <c r="F1954" t="inlineStr"/>
+      <c r="F1954" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="G1954" t="inlineStr">
         <is>
           <t>3</t>
@@ -51268,15 +51344,35 @@
     <row r="1955">
       <c r="A1955" t="inlineStr">
         <is>
-          <t>Tuesday June 24 2025</t>
-        </is>
-      </c>
-      <c r="B1955" t="inlineStr"/>
+          <t>07:30 AM</t>
+        </is>
+      </c>
+      <c r="B1955" t="inlineStr">
+        <is>
+          <t>PCE Prices QoQ FinalQ1</t>
+        </is>
+      </c>
       <c r="C1955" t="inlineStr"/>
-      <c r="D1955" t="inlineStr"/>
-      <c r="E1955" t="inlineStr"/>
-      <c r="F1955" t="inlineStr"/>
-      <c r="G1955" t="inlineStr"/>
+      <c r="D1955" t="inlineStr">
+        <is>
+          <t>2.4%</t>
+        </is>
+      </c>
+      <c r="E1955" t="inlineStr">
+        <is>
+          <t>3.6%</t>
+        </is>
+      </c>
+      <c r="F1955" t="inlineStr">
+        <is>
+          <t>3.6%</t>
+        </is>
+      </c>
+      <c r="G1955" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1956">
       <c r="A1956" t="inlineStr">
@@ -51286,73 +51382,73 @@
       </c>
       <c r="B1956" t="inlineStr">
         <is>
-          <t>Current AccountQ1</t>
+          <t>Real Consumer Spending QoQ FinalQ1</t>
         </is>
       </c>
       <c r="C1956" t="inlineStr"/>
       <c r="D1956" t="inlineStr">
         <is>
-          <t>$-380B</t>
-        </is>
-      </c>
-      <c r="E1956" t="inlineStr"/>
+          <t>4%</t>
+        </is>
+      </c>
+      <c r="E1956" t="inlineStr">
+        <is>
+          <t>1.2%</t>
+        </is>
+      </c>
       <c r="F1956" t="inlineStr">
         <is>
-          <t>$ -380.0B</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="G1956" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1957">
       <c r="A1957" t="inlineStr">
         <is>
-          <t>07:55 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B1957" t="inlineStr">
         <is>
-          <t>Redbook YoYJUN/21</t>
+          <t>Fed Hammack Speech</t>
         </is>
       </c>
       <c r="C1957" t="inlineStr"/>
-      <c r="D1957" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
+      <c r="D1957" t="inlineStr"/>
       <c r="E1957" t="inlineStr"/>
       <c r="F1957" t="inlineStr"/>
       <c r="G1957" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1958">
       <c r="A1958" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1958" t="inlineStr">
         <is>
-          <t>S&amp;P/Case-Shiller Home Price YoYAPR</t>
+          <t>Pending Home Sales MoMMAY</t>
         </is>
       </c>
       <c r="C1958" t="inlineStr"/>
       <c r="D1958" t="inlineStr">
         <is>
-          <t>4.1%</t>
+          <t>-6.3%</t>
         </is>
       </c>
       <c r="E1958" t="inlineStr"/>
       <c r="F1958" t="inlineStr">
         <is>
-          <t>4.0%</t>
+          <t>0.9%</t>
         </is>
       </c>
       <c r="G1958" t="inlineStr">
@@ -51364,55 +51460,51 @@
     <row r="1959">
       <c r="A1959" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1959" t="inlineStr">
         <is>
-          <t>House Price IndexAPR</t>
+          <t>Pending Home Sales YoYMAY</t>
         </is>
       </c>
       <c r="C1959" t="inlineStr"/>
       <c r="D1959" t="inlineStr">
         <is>
-          <t>436.6</t>
+          <t>-2.5%</t>
         </is>
       </c>
       <c r="E1959" t="inlineStr"/>
       <c r="F1959" t="inlineStr">
         <is>
-          <t>436.2</t>
+          <t>-2.1%</t>
         </is>
       </c>
       <c r="G1959" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1960">
       <c r="A1960" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B1960" t="inlineStr">
         <is>
-          <t>House Price Index MoMAPR</t>
+          <t>EIA Natural Gas Stocks ChangeJUN/20</t>
         </is>
       </c>
       <c r="C1960" t="inlineStr"/>
       <c r="D1960" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>95Bcf</t>
         </is>
       </c>
       <c r="E1960" t="inlineStr"/>
-      <c r="F1960" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
+      <c r="F1960" t="inlineStr"/>
       <c r="G1960" t="inlineStr">
         <is>
           <t>3</t>
@@ -51422,24 +51514,24 @@
     <row r="1961">
       <c r="A1961" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1961" t="inlineStr">
         <is>
-          <t>House Price Index YoYAPR</t>
+          <t>Kansas Fed Composite IndexJUN</t>
         </is>
       </c>
       <c r="C1961" t="inlineStr"/>
       <c r="D1961" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>-3</t>
         </is>
       </c>
       <c r="E1961" t="inlineStr"/>
       <c r="F1961" t="inlineStr">
         <is>
-          <t>3.2%</t>
+          <t>-4</t>
         </is>
       </c>
       <c r="G1961" t="inlineStr">
@@ -51451,24 +51543,24 @@
     <row r="1962">
       <c r="A1962" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1962" t="inlineStr">
         <is>
-          <t>S&amp;P/Case-Shiller Home Price MoMAPR</t>
+          <t>Kansas Fed Manufacturing IndexJUN</t>
         </is>
       </c>
       <c r="C1962" t="inlineStr"/>
       <c r="D1962" t="inlineStr">
         <is>
-          <t>1.1%</t>
+          <t>-10</t>
         </is>
       </c>
       <c r="E1962" t="inlineStr"/>
       <c r="F1962" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>-5</t>
         </is>
       </c>
       <c r="G1962" t="inlineStr">
@@ -51480,55 +51572,39 @@
     <row r="1963">
       <c r="A1963" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1963" t="inlineStr">
         <is>
-          <t>CB Consumer ConfidenceJUN</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1963" t="inlineStr"/>
-      <c r="D1963" t="inlineStr">
-        <is>
-          <t>98.0</t>
-        </is>
-      </c>
+      <c r="D1963" t="inlineStr"/>
       <c r="E1963" t="inlineStr"/>
-      <c r="F1963" t="inlineStr">
-        <is>
-          <t>97</t>
-        </is>
-      </c>
+      <c r="F1963" t="inlineStr"/>
       <c r="G1963" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1964">
       <c r="A1964" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1964" t="inlineStr">
         <is>
-          <t>Richmond Fed Manufacturing IndexJUN</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1964" t="inlineStr"/>
-      <c r="D1964" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
+      <c r="D1964" t="inlineStr"/>
       <c r="E1964" t="inlineStr"/>
-      <c r="F1964" t="inlineStr">
-        <is>
-          <t>-7</t>
-        </is>
-      </c>
+      <c r="F1964" t="inlineStr"/>
       <c r="G1964" t="inlineStr">
         <is>
           <t>3</t>
@@ -51538,26 +51614,18 @@
     <row r="1965">
       <c r="A1965" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1965" t="inlineStr">
         <is>
-          <t>Richmond Fed Manufacturing Shipments IndexJUN</t>
+          <t>15-Year Mortgage RateJUN/26</t>
         </is>
       </c>
       <c r="C1965" t="inlineStr"/>
-      <c r="D1965" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
-      </c>
+      <c r="D1965" t="inlineStr"/>
       <c r="E1965" t="inlineStr"/>
-      <c r="F1965" t="inlineStr">
-        <is>
-          <t>-8</t>
-        </is>
-      </c>
+      <c r="F1965" t="inlineStr"/>
       <c r="G1965" t="inlineStr">
         <is>
           <t>3</t>
@@ -51567,26 +51635,22 @@
     <row r="1966">
       <c r="A1966" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1966" t="inlineStr">
         <is>
-          <t>Richmond Fed Services Revenues IndexJUN</t>
+          <t>30-Year Mortgage RateJUN/26</t>
         </is>
       </c>
       <c r="C1966" t="inlineStr"/>
       <c r="D1966" t="inlineStr">
         <is>
-          <t>-11</t>
+          <t>6.81%</t>
         </is>
       </c>
       <c r="E1966" t="inlineStr"/>
-      <c r="F1966" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
-      </c>
+      <c r="F1966" t="inlineStr"/>
       <c r="G1966" t="inlineStr">
         <is>
           <t>3</t>
@@ -51601,13 +51665,13 @@
       </c>
       <c r="B1967" t="inlineStr">
         <is>
-          <t>2-Year Note Auction</t>
+          <t>7-Year Note Auction</t>
         </is>
       </c>
       <c r="C1967" t="inlineStr"/>
       <c r="D1967" t="inlineStr">
         <is>
-          <t>3.955%</t>
+          <t>4.194%</t>
         </is>
       </c>
       <c r="E1967" t="inlineStr"/>
@@ -51621,20 +51685,16 @@
     <row r="1968">
       <c r="A1968" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B1968" t="inlineStr">
         <is>
-          <t>Money SupplyMAY</t>
+          <t>Fed Balance SheetJUN/25</t>
         </is>
       </c>
       <c r="C1968" t="inlineStr"/>
-      <c r="D1968" t="inlineStr">
-        <is>
-          <t>$21.86T</t>
-        </is>
-      </c>
+      <c r="D1968" t="inlineStr"/>
       <c r="E1968" t="inlineStr"/>
       <c r="F1968" t="inlineStr"/>
       <c r="G1968" t="inlineStr">
@@ -51646,160 +51706,184 @@
     <row r="1969">
       <c r="A1969" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B1969" t="inlineStr">
-        <is>
-          <t>API Crude Oil Stock ChangeJUN/20</t>
-        </is>
-      </c>
+          <t>Friday June 27 2025</t>
+        </is>
+      </c>
+      <c r="B1969" t="inlineStr"/>
       <c r="C1969" t="inlineStr"/>
-      <c r="D1969" t="inlineStr">
-        <is>
-          <t>-10.133M</t>
-        </is>
-      </c>
+      <c r="D1969" t="inlineStr"/>
       <c r="E1969" t="inlineStr"/>
       <c r="F1969" t="inlineStr"/>
-      <c r="G1969" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G1969" t="inlineStr"/>
     </row>
     <row r="1970">
       <c r="A1970" t="inlineStr">
         <is>
-          <t>Wednesday June 25 2025</t>
-        </is>
-      </c>
-      <c r="B1970" t="inlineStr"/>
+          <t>07:30 AM</t>
+        </is>
+      </c>
+      <c r="B1970" t="inlineStr">
+        <is>
+          <t>Core PCE Price Index MoMMAY</t>
+        </is>
+      </c>
       <c r="C1970" t="inlineStr"/>
-      <c r="D1970" t="inlineStr"/>
+      <c r="D1970" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="E1970" t="inlineStr"/>
-      <c r="F1970" t="inlineStr"/>
-      <c r="G1970" t="inlineStr"/>
+      <c r="F1970" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="G1970" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="1971">
       <c r="A1971" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1971" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateJUN/20</t>
+          <t>Personal Income MoMMAY</t>
         </is>
       </c>
       <c r="C1971" t="inlineStr"/>
       <c r="D1971" t="inlineStr">
         <is>
-          <t>6.84%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="E1971" t="inlineStr"/>
-      <c r="F1971" t="inlineStr"/>
+      <c r="F1971" t="inlineStr">
+        <is>
+          <t>0.6%</t>
+        </is>
+      </c>
       <c r="G1971" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1972">
       <c r="A1972" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1972" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsJUN/20</t>
+          <t>Personal Spending MoMMAY</t>
         </is>
       </c>
       <c r="C1972" t="inlineStr"/>
       <c r="D1972" t="inlineStr">
         <is>
-          <t>-2.6%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="E1972" t="inlineStr"/>
-      <c r="F1972" t="inlineStr"/>
+      <c r="F1972" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="G1972" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1973">
       <c r="A1973" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1973" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexJUN/20</t>
+          <t>PCE Price Index MoMMAY</t>
         </is>
       </c>
       <c r="C1973" t="inlineStr"/>
       <c r="D1973" t="inlineStr">
         <is>
-          <t>248.1</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="E1973" t="inlineStr"/>
-      <c r="F1973" t="inlineStr"/>
+      <c r="F1973" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="G1973" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1974">
       <c r="A1974" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1974" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexJUN/20</t>
+          <t>PCE Price Index YoYMAY</t>
         </is>
       </c>
       <c r="C1974" t="inlineStr"/>
       <c r="D1974" t="inlineStr">
         <is>
-          <t>692.4</t>
+          <t>2.1%</t>
         </is>
       </c>
       <c r="E1974" t="inlineStr"/>
-      <c r="F1974" t="inlineStr"/>
+      <c r="F1974" t="inlineStr">
+        <is>
+          <t>2.2%</t>
+        </is>
+      </c>
       <c r="G1974" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1975">
       <c r="A1975" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1975" t="inlineStr">
         <is>
-          <t>MBA Purchase IndexJUN/20</t>
+          <t>Core PCE Price Index YoYMAY</t>
         </is>
       </c>
       <c r="C1975" t="inlineStr"/>
       <c r="D1975" t="inlineStr">
         <is>
-          <t>165.8</t>
+          <t>2.5%</t>
         </is>
       </c>
       <c r="E1975" t="inlineStr"/>
-      <c r="F1975" t="inlineStr"/>
+      <c r="F1975" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="G1975" t="inlineStr">
         <is>
           <t>3</t>
@@ -51809,26 +51893,18 @@
     <row r="1976">
       <c r="A1976" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>08:15 AM</t>
         </is>
       </c>
       <c r="B1976" t="inlineStr">
         <is>
-          <t>New Home SalesMAY</t>
+          <t>Fed Hammack Speech</t>
         </is>
       </c>
       <c r="C1976" t="inlineStr"/>
-      <c r="D1976" t="inlineStr">
-        <is>
-          <t>0.743M</t>
-        </is>
-      </c>
+      <c r="D1976" t="inlineStr"/>
       <c r="E1976" t="inlineStr"/>
-      <c r="F1976" t="inlineStr">
-        <is>
-          <t>0.7M</t>
-        </is>
-      </c>
+      <c r="F1976" t="inlineStr"/>
       <c r="G1976" t="inlineStr">
         <is>
           <t>2</t>
@@ -51843,19 +51919,23 @@
       </c>
       <c r="B1977" t="inlineStr">
         <is>
-          <t>New Home Sales MoMMAY</t>
+          <t>Michigan Consumer Sentiment FinalJUN</t>
         </is>
       </c>
       <c r="C1977" t="inlineStr"/>
       <c r="D1977" t="inlineStr">
         <is>
-          <t>10.9%</t>
-        </is>
-      </c>
-      <c r="E1977" t="inlineStr"/>
+          <t>52.2</t>
+        </is>
+      </c>
+      <c r="E1977" t="inlineStr">
+        <is>
+          <t>60.5</t>
+        </is>
+      </c>
       <c r="F1977" t="inlineStr">
         <is>
-          <t>-5.8%</t>
+          <t>60.5</t>
         </is>
       </c>
       <c r="G1977" t="inlineStr">
@@ -51867,72 +51947,96 @@
     <row r="1978">
       <c r="A1978" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1978" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Stocks ChangeJUN/20</t>
+          <t>Michigan 5 Year Inflation Expectations FinalJUN</t>
         </is>
       </c>
       <c r="C1978" t="inlineStr"/>
       <c r="D1978" t="inlineStr">
         <is>
-          <t>-11.473M</t>
-        </is>
-      </c>
-      <c r="E1978" t="inlineStr"/>
-      <c r="F1978" t="inlineStr"/>
+          <t>4.2%</t>
+        </is>
+      </c>
+      <c r="E1978" t="inlineStr">
+        <is>
+          <t>4.1%</t>
+        </is>
+      </c>
+      <c r="F1978" t="inlineStr">
+        <is>
+          <t>4.1%</t>
+        </is>
+      </c>
       <c r="G1978" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1979">
       <c r="A1979" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1979" t="inlineStr">
         <is>
-          <t>EIA Gasoline Stocks ChangeJUN/20</t>
+          <t>Michigan Consumer Expectations FinalJUN</t>
         </is>
       </c>
       <c r="C1979" t="inlineStr"/>
       <c r="D1979" t="inlineStr">
         <is>
-          <t>0.209M</t>
-        </is>
-      </c>
-      <c r="E1979" t="inlineStr"/>
-      <c r="F1979" t="inlineStr"/>
+          <t>47.9</t>
+        </is>
+      </c>
+      <c r="E1979" t="inlineStr">
+        <is>
+          <t>58.4</t>
+        </is>
+      </c>
+      <c r="F1979" t="inlineStr">
+        <is>
+          <t>58.4</t>
+        </is>
+      </c>
       <c r="G1979" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1980">
       <c r="A1980" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1980" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Imports ChangeJUN/20</t>
+          <t>Michigan Current Conditions FinalJUN</t>
         </is>
       </c>
       <c r="C1980" t="inlineStr"/>
       <c r="D1980" t="inlineStr">
         <is>
-          <t>-1.747M</t>
-        </is>
-      </c>
-      <c r="E1980" t="inlineStr"/>
-      <c r="F1980" t="inlineStr"/>
+          <t>58.9</t>
+        </is>
+      </c>
+      <c r="E1980" t="inlineStr">
+        <is>
+          <t>63.7</t>
+        </is>
+      </c>
+      <c r="F1980" t="inlineStr">
+        <is>
+          <t>63.7</t>
+        </is>
+      </c>
       <c r="G1980" t="inlineStr">
         <is>
           <t>3</t>
@@ -51942,22 +52046,30 @@
     <row r="1981">
       <c r="A1981" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1981" t="inlineStr">
         <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeJUN/20</t>
+          <t>Michigan Inflation Expectations FinalJUN</t>
         </is>
       </c>
       <c r="C1981" t="inlineStr"/>
       <c r="D1981" t="inlineStr">
         <is>
-          <t>-0.995M</t>
-        </is>
-      </c>
-      <c r="E1981" t="inlineStr"/>
-      <c r="F1981" t="inlineStr"/>
+          <t>6.6%</t>
+        </is>
+      </c>
+      <c r="E1981" t="inlineStr">
+        <is>
+          <t>5.1%</t>
+        </is>
+      </c>
+      <c r="F1981" t="inlineStr">
+        <is>
+          <t>5.1%</t>
+        </is>
+      </c>
       <c r="G1981" t="inlineStr">
         <is>
           <t>3</t>
@@ -51967,20 +52079,16 @@
     <row r="1982">
       <c r="A1982" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B1982" t="inlineStr">
         <is>
-          <t>EIA Distillate Fuel Production ChangeJUN/20</t>
+          <t>Baker Hughes Oil Rig CountJUN/27</t>
         </is>
       </c>
       <c r="C1982" t="inlineStr"/>
-      <c r="D1982" t="inlineStr">
-        <is>
-          <t>0.077M</t>
-        </is>
-      </c>
+      <c r="D1982" t="inlineStr"/>
       <c r="E1982" t="inlineStr"/>
       <c r="F1982" t="inlineStr"/>
       <c r="G1982" t="inlineStr">
@@ -51992,20 +52100,16 @@
     <row r="1983">
       <c r="A1983" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B1983" t="inlineStr">
         <is>
-          <t>EIA Distillate Stocks ChangeJUN/20</t>
+          <t>Baker Hughes Total Rigs CountJUN/27</t>
         </is>
       </c>
       <c r="C1983" t="inlineStr"/>
-      <c r="D1983" t="inlineStr">
-        <is>
-          <t>0.514M</t>
-        </is>
-      </c>
+      <c r="D1983" t="inlineStr"/>
       <c r="E1983" t="inlineStr"/>
       <c r="F1983" t="inlineStr"/>
       <c r="G1983" t="inlineStr">
@@ -52017,1514 +52121,15 @@
     <row r="1984">
       <c r="A1984" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1984" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeJUN/20</t>
-        </is>
-      </c>
+          <t>Sunday June 29 2025</t>
+        </is>
+      </c>
+      <c r="B1984" t="inlineStr"/>
       <c r="C1984" t="inlineStr"/>
-      <c r="D1984" t="inlineStr">
-        <is>
-          <t>0.386M</t>
-        </is>
-      </c>
+      <c r="D1984" t="inlineStr"/>
       <c r="E1984" t="inlineStr"/>
       <c r="F1984" t="inlineStr"/>
-      <c r="G1984" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1985">
-      <c r="A1985" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1985" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeJUN/20</t>
-        </is>
-      </c>
-      <c r="C1985" t="inlineStr"/>
-      <c r="D1985" t="inlineStr">
-        <is>
-          <t>0.152M</t>
-        </is>
-      </c>
-      <c r="E1985" t="inlineStr"/>
-      <c r="F1985" t="inlineStr"/>
-      <c r="G1985" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1986">
-      <c r="A1986" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1986" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeJUN/20</t>
-        </is>
-      </c>
-      <c r="C1986" t="inlineStr"/>
-      <c r="D1986" t="inlineStr">
-        <is>
-          <t>-0.364M</t>
-        </is>
-      </c>
-      <c r="E1986" t="inlineStr"/>
-      <c r="F1986" t="inlineStr"/>
-      <c r="G1986" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1987">
-      <c r="A1987" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1987" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1987" t="inlineStr"/>
-      <c r="D1987" t="inlineStr"/>
-      <c r="E1987" t="inlineStr"/>
-      <c r="F1987" t="inlineStr"/>
-      <c r="G1987" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1988">
-      <c r="A1988" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B1988" t="inlineStr">
-        <is>
-          <t>5-Year Note Auction</t>
-        </is>
-      </c>
-      <c r="C1988" t="inlineStr"/>
-      <c r="D1988" t="inlineStr">
-        <is>
-          <t>4.071%</t>
-        </is>
-      </c>
-      <c r="E1988" t="inlineStr"/>
-      <c r="F1988" t="inlineStr"/>
-      <c r="G1988" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1989">
-      <c r="A1989" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1989" t="inlineStr">
-        <is>
-          <t>2-Year FRN Auction</t>
-        </is>
-      </c>
-      <c r="C1989" t="inlineStr"/>
-      <c r="D1989" t="inlineStr">
-        <is>
-          <t>0.144%</t>
-        </is>
-      </c>
-      <c r="E1989" t="inlineStr"/>
-      <c r="F1989" t="inlineStr"/>
-      <c r="G1989" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1990">
-      <c r="A1990" t="inlineStr"/>
-      <c r="B1990" t="inlineStr">
-        <is>
-          <t>Building Permits FinalMAY</t>
-        </is>
-      </c>
-      <c r="C1990" t="inlineStr"/>
-      <c r="D1990" t="inlineStr">
-        <is>
-          <t>1.422M</t>
-        </is>
-      </c>
-      <c r="E1990" t="inlineStr">
-        <is>
-          <t>1.393M</t>
-        </is>
-      </c>
-      <c r="F1990" t="inlineStr">
-        <is>
-          <t>1.393M</t>
-        </is>
-      </c>
-      <c r="G1990" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1991">
-      <c r="A1991" t="inlineStr"/>
-      <c r="B1991" t="inlineStr">
-        <is>
-          <t>Building Permits MoM FinalMAY</t>
-        </is>
-      </c>
-      <c r="C1991" t="inlineStr"/>
-      <c r="D1991" t="inlineStr">
-        <is>
-          <t>-4%</t>
-        </is>
-      </c>
-      <c r="E1991" t="inlineStr">
-        <is>
-          <t>-2%</t>
-        </is>
-      </c>
-      <c r="F1991" t="inlineStr">
-        <is>
-          <t>-2.0%</t>
-        </is>
-      </c>
-      <c r="G1991" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1992">
-      <c r="A1992" t="inlineStr">
-        <is>
-          <t>Thursday June 26 2025</t>
-        </is>
-      </c>
-      <c r="B1992" t="inlineStr"/>
-      <c r="C1992" t="inlineStr"/>
-      <c r="D1992" t="inlineStr"/>
-      <c r="E1992" t="inlineStr"/>
-      <c r="F1992" t="inlineStr"/>
-      <c r="G1992" t="inlineStr"/>
-    </row>
-    <row r="1993">
-      <c r="A1993" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B1993" t="inlineStr">
-        <is>
-          <t>Fed Barkin Speech</t>
-        </is>
-      </c>
-      <c r="C1993" t="inlineStr"/>
-      <c r="D1993" t="inlineStr"/>
-      <c r="E1993" t="inlineStr"/>
-      <c r="F1993" t="inlineStr"/>
-      <c r="G1993" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1994">
-      <c r="A1994" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1994" t="inlineStr">
-        <is>
-          <t>Durable Goods Orders MoMMAY</t>
-        </is>
-      </c>
-      <c r="C1994" t="inlineStr"/>
-      <c r="D1994" t="inlineStr">
-        <is>
-          <t>-6.3%</t>
-        </is>
-      </c>
-      <c r="E1994" t="inlineStr"/>
-      <c r="F1994" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G1994" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1995">
-      <c r="A1995" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1995" t="inlineStr">
-        <is>
-          <t>GDP Growth Rate QoQ FinalQ1</t>
-        </is>
-      </c>
-      <c r="C1995" t="inlineStr"/>
-      <c r="D1995" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="E1995" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="F1995" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="G1995" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1996">
-      <c r="A1996" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1996" t="inlineStr">
-        <is>
-          <t>Chicago Fed National Activity IndexMAY</t>
-        </is>
-      </c>
-      <c r="C1996" t="inlineStr"/>
-      <c r="D1996" t="inlineStr">
-        <is>
-          <t>-0.25</t>
-        </is>
-      </c>
-      <c r="E1996" t="inlineStr"/>
-      <c r="F1996" t="inlineStr">
-        <is>
-          <t>-0.1</t>
-        </is>
-      </c>
-      <c r="G1996" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1997">
-      <c r="A1997" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1997" t="inlineStr">
-        <is>
-          <t>Corporate Profits QoQ FinalQ1</t>
-        </is>
-      </c>
-      <c r="C1997" t="inlineStr"/>
-      <c r="D1997" t="inlineStr">
-        <is>
-          <t>5.9%</t>
-        </is>
-      </c>
-      <c r="E1997" t="inlineStr">
-        <is>
-          <t>-3.6%</t>
-        </is>
-      </c>
-      <c r="F1997" t="inlineStr">
-        <is>
-          <t>-3.6%</t>
-        </is>
-      </c>
-      <c r="G1997" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1998">
-      <c r="A1998" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1998" t="inlineStr">
-        <is>
-          <t>Durable Goods Orders Ex Transp MoMMAY</t>
-        </is>
-      </c>
-      <c r="C1998" t="inlineStr"/>
-      <c r="D1998" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E1998" t="inlineStr"/>
-      <c r="F1998" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="G1998" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1999">
-      <c r="A1999" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1999" t="inlineStr">
-        <is>
-          <t>GDP Price Index QoQ FinalQ1</t>
-        </is>
-      </c>
-      <c r="C1999" t="inlineStr"/>
-      <c r="D1999" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
-      <c r="E1999" t="inlineStr">
-        <is>
-          <t>3.7%</t>
-        </is>
-      </c>
-      <c r="F1999" t="inlineStr">
-        <is>
-          <t>3.7%</t>
-        </is>
-      </c>
-      <c r="G1999" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2000">
-      <c r="A2000" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2000" t="inlineStr">
-        <is>
-          <t>Goods Trade Balance AdvMAY</t>
-        </is>
-      </c>
-      <c r="C2000" t="inlineStr"/>
-      <c r="D2000" t="inlineStr">
-        <is>
-          <t>$-87.62B</t>
-        </is>
-      </c>
-      <c r="E2000" t="inlineStr"/>
-      <c r="F2000" t="inlineStr">
-        <is>
-          <t>$-81.0B</t>
-        </is>
-      </c>
-      <c r="G2000" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2001">
-      <c r="A2001" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2001" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsJUN/21</t>
-        </is>
-      </c>
-      <c r="C2001" t="inlineStr"/>
-      <c r="D2001" t="inlineStr">
-        <is>
-          <t>245K</t>
-        </is>
-      </c>
-      <c r="E2001" t="inlineStr"/>
-      <c r="F2001" t="inlineStr">
-        <is>
-          <t>247.0K</t>
-        </is>
-      </c>
-      <c r="G2001" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2002">
-      <c r="A2002" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2002" t="inlineStr">
-        <is>
-          <t>Retail Inventories Ex Autos MoM AdvMAY</t>
-        </is>
-      </c>
-      <c r="C2002" t="inlineStr"/>
-      <c r="D2002" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E2002" t="inlineStr"/>
-      <c r="F2002" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G2002" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2003">
-      <c r="A2003" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2003" t="inlineStr">
-        <is>
-          <t>Wholesale Inventories MoM AdvMAY</t>
-        </is>
-      </c>
-      <c r="C2003" t="inlineStr"/>
-      <c r="D2003" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E2003" t="inlineStr"/>
-      <c r="F2003" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G2003" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2004">
-      <c r="A2004" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2004" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsJUN/14</t>
-        </is>
-      </c>
-      <c r="C2004" t="inlineStr"/>
-      <c r="D2004" t="inlineStr">
-        <is>
-          <t>1945K</t>
-        </is>
-      </c>
-      <c r="E2004" t="inlineStr"/>
-      <c r="F2004" t="inlineStr">
-        <is>
-          <t>1947.0K</t>
-        </is>
-      </c>
-      <c r="G2004" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2005">
-      <c r="A2005" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2005" t="inlineStr">
-        <is>
-          <t>Core PCE Prices QoQ FinalQ1</t>
-        </is>
-      </c>
-      <c r="C2005" t="inlineStr"/>
-      <c r="D2005" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="E2005" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="F2005" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="G2005" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2006">
-      <c r="A2006" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2006" t="inlineStr">
-        <is>
-          <t>Durable Goods Orders ex Defense MoMMAY</t>
-        </is>
-      </c>
-      <c r="C2006" t="inlineStr"/>
-      <c r="D2006" t="inlineStr">
-        <is>
-          <t>-7.5%</t>
-        </is>
-      </c>
-      <c r="E2006" t="inlineStr"/>
-      <c r="F2006" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G2006" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2007">
-      <c r="A2007" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2007" t="inlineStr">
-        <is>
-          <t>GDP Sales QoQ FinalQ1</t>
-        </is>
-      </c>
-      <c r="C2007" t="inlineStr"/>
-      <c r="D2007" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="E2007" t="inlineStr">
-        <is>
-          <t>-2.9%</t>
-        </is>
-      </c>
-      <c r="F2007" t="inlineStr">
-        <is>
-          <t>-2.9%</t>
-        </is>
-      </c>
-      <c r="G2007" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2008">
-      <c r="A2008" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2008" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageJUN/21</t>
-        </is>
-      </c>
-      <c r="C2008" t="inlineStr"/>
-      <c r="D2008" t="inlineStr">
-        <is>
-          <t>245.5K</t>
-        </is>
-      </c>
-      <c r="E2008" t="inlineStr"/>
-      <c r="F2008" t="inlineStr">
-        <is>
-          <t>247.0K</t>
-        </is>
-      </c>
-      <c r="G2008" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2009">
-      <c r="A2009" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2009" t="inlineStr">
-        <is>
-          <t>Non Defense Goods Orders Ex AirMAY</t>
-        </is>
-      </c>
-      <c r="C2009" t="inlineStr"/>
-      <c r="D2009" t="inlineStr">
-        <is>
-          <t>-1.3%</t>
-        </is>
-      </c>
-      <c r="E2009" t="inlineStr"/>
-      <c r="F2009" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G2009" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2010">
-      <c r="A2010" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2010" t="inlineStr">
-        <is>
-          <t>PCE Prices QoQ FinalQ1</t>
-        </is>
-      </c>
-      <c r="C2010" t="inlineStr"/>
-      <c r="D2010" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="E2010" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
-      <c r="F2010" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
-      <c r="G2010" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2011">
-      <c r="A2011" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2011" t="inlineStr">
-        <is>
-          <t>Real Consumer Spending QoQ FinalQ1</t>
-        </is>
-      </c>
-      <c r="C2011" t="inlineStr"/>
-      <c r="D2011" t="inlineStr">
-        <is>
-          <t>4%</t>
-        </is>
-      </c>
-      <c r="E2011" t="inlineStr">
-        <is>
-          <t>1.2%</t>
-        </is>
-      </c>
-      <c r="F2011" t="inlineStr">
-        <is>
-          <t>1.2%</t>
-        </is>
-      </c>
-      <c r="G2011" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2012">
-      <c r="A2012" t="inlineStr">
-        <is>
-          <t>08:00 AM</t>
-        </is>
-      </c>
-      <c r="B2012" t="inlineStr">
-        <is>
-          <t>Fed Hammack Speech</t>
-        </is>
-      </c>
-      <c r="C2012" t="inlineStr"/>
-      <c r="D2012" t="inlineStr"/>
-      <c r="E2012" t="inlineStr"/>
-      <c r="F2012" t="inlineStr"/>
-      <c r="G2012" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2013">
-      <c r="A2013" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B2013" t="inlineStr">
-        <is>
-          <t>Pending Home Sales MoMMAY</t>
-        </is>
-      </c>
-      <c r="C2013" t="inlineStr"/>
-      <c r="D2013" t="inlineStr">
-        <is>
-          <t>-6.3%</t>
-        </is>
-      </c>
-      <c r="E2013" t="inlineStr"/>
-      <c r="F2013" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
-      <c r="G2013" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2014">
-      <c r="A2014" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B2014" t="inlineStr">
-        <is>
-          <t>Pending Home Sales YoYMAY</t>
-        </is>
-      </c>
-      <c r="C2014" t="inlineStr"/>
-      <c r="D2014" t="inlineStr">
-        <is>
-          <t>-2.5%</t>
-        </is>
-      </c>
-      <c r="E2014" t="inlineStr"/>
-      <c r="F2014" t="inlineStr">
-        <is>
-          <t>-2.1%</t>
-        </is>
-      </c>
-      <c r="G2014" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2015">
-      <c r="A2015" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B2015" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeJUN/20</t>
-        </is>
-      </c>
-      <c r="C2015" t="inlineStr"/>
-      <c r="D2015" t="inlineStr">
-        <is>
-          <t>95Bcf</t>
-        </is>
-      </c>
-      <c r="E2015" t="inlineStr"/>
-      <c r="F2015" t="inlineStr"/>
-      <c r="G2015" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2016">
-      <c r="A2016" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B2016" t="inlineStr">
-        <is>
-          <t>Kansas Fed Composite IndexJUN</t>
-        </is>
-      </c>
-      <c r="C2016" t="inlineStr"/>
-      <c r="D2016" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="E2016" t="inlineStr"/>
-      <c r="F2016" t="inlineStr">
-        <is>
-          <t>-4</t>
-        </is>
-      </c>
-      <c r="G2016" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2017">
-      <c r="A2017" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B2017" t="inlineStr">
-        <is>
-          <t>Kansas Fed Manufacturing IndexJUN</t>
-        </is>
-      </c>
-      <c r="C2017" t="inlineStr"/>
-      <c r="D2017" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
-      </c>
-      <c r="E2017" t="inlineStr"/>
-      <c r="F2017" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="G2017" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2018">
-      <c r="A2018" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B2018" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C2018" t="inlineStr"/>
-      <c r="D2018" t="inlineStr"/>
-      <c r="E2018" t="inlineStr"/>
-      <c r="F2018" t="inlineStr"/>
-      <c r="G2018" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2019">
-      <c r="A2019" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B2019" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C2019" t="inlineStr"/>
-      <c r="D2019" t="inlineStr"/>
-      <c r="E2019" t="inlineStr"/>
-      <c r="F2019" t="inlineStr"/>
-      <c r="G2019" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2020">
-      <c r="A2020" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B2020" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateJUN/26</t>
-        </is>
-      </c>
-      <c r="C2020" t="inlineStr"/>
-      <c r="D2020" t="inlineStr"/>
-      <c r="E2020" t="inlineStr"/>
-      <c r="F2020" t="inlineStr"/>
-      <c r="G2020" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2021">
-      <c r="A2021" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B2021" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateJUN/26</t>
-        </is>
-      </c>
-      <c r="C2021" t="inlineStr"/>
-      <c r="D2021" t="inlineStr">
-        <is>
-          <t>6.81%</t>
-        </is>
-      </c>
-      <c r="E2021" t="inlineStr"/>
-      <c r="F2021" t="inlineStr"/>
-      <c r="G2021" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2022">
-      <c r="A2022" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B2022" t="inlineStr">
-        <is>
-          <t>7-Year Note Auction</t>
-        </is>
-      </c>
-      <c r="C2022" t="inlineStr"/>
-      <c r="D2022" t="inlineStr">
-        <is>
-          <t>4.194%</t>
-        </is>
-      </c>
-      <c r="E2022" t="inlineStr"/>
-      <c r="F2022" t="inlineStr"/>
-      <c r="G2022" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2023">
-      <c r="A2023" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B2023" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetJUN/25</t>
-        </is>
-      </c>
-      <c r="C2023" t="inlineStr"/>
-      <c r="D2023" t="inlineStr"/>
-      <c r="E2023" t="inlineStr"/>
-      <c r="F2023" t="inlineStr"/>
-      <c r="G2023" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2024">
-      <c r="A2024" t="inlineStr">
-        <is>
-          <t>Friday June 27 2025</t>
-        </is>
-      </c>
-      <c r="B2024" t="inlineStr"/>
-      <c r="C2024" t="inlineStr"/>
-      <c r="D2024" t="inlineStr"/>
-      <c r="E2024" t="inlineStr"/>
-      <c r="F2024" t="inlineStr"/>
-      <c r="G2024" t="inlineStr"/>
-    </row>
-    <row r="2025">
-      <c r="A2025" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2025" t="inlineStr">
-        <is>
-          <t>Core PCE Price Index MoMMAY</t>
-        </is>
-      </c>
-      <c r="C2025" t="inlineStr"/>
-      <c r="D2025" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E2025" t="inlineStr"/>
-      <c r="F2025" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G2025" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2026">
-      <c r="A2026" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2026" t="inlineStr">
-        <is>
-          <t>Personal Income MoMMAY</t>
-        </is>
-      </c>
-      <c r="C2026" t="inlineStr"/>
-      <c r="D2026" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="E2026" t="inlineStr"/>
-      <c r="F2026" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="G2026" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2027">
-      <c r="A2027" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2027" t="inlineStr">
-        <is>
-          <t>Personal Spending MoMMAY</t>
-        </is>
-      </c>
-      <c r="C2027" t="inlineStr"/>
-      <c r="D2027" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E2027" t="inlineStr"/>
-      <c r="F2027" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G2027" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2028">
-      <c r="A2028" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2028" t="inlineStr">
-        <is>
-          <t>PCE Price Index MoMMAY</t>
-        </is>
-      </c>
-      <c r="C2028" t="inlineStr"/>
-      <c r="D2028" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E2028" t="inlineStr"/>
-      <c r="F2028" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G2028" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2029">
-      <c r="A2029" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2029" t="inlineStr">
-        <is>
-          <t>PCE Price Index YoYMAY</t>
-        </is>
-      </c>
-      <c r="C2029" t="inlineStr"/>
-      <c r="D2029" t="inlineStr">
-        <is>
-          <t>2.1%</t>
-        </is>
-      </c>
-      <c r="E2029" t="inlineStr"/>
-      <c r="F2029" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="G2029" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2030">
-      <c r="A2030" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2030" t="inlineStr">
-        <is>
-          <t>Core PCE Price Index YoYMAY</t>
-        </is>
-      </c>
-      <c r="C2030" t="inlineStr"/>
-      <c r="D2030" t="inlineStr">
-        <is>
-          <t>2.5%</t>
-        </is>
-      </c>
-      <c r="E2030" t="inlineStr"/>
-      <c r="F2030" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="G2030" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2031">
-      <c r="A2031" t="inlineStr">
-        <is>
-          <t>08:15 AM</t>
-        </is>
-      </c>
-      <c r="B2031" t="inlineStr">
-        <is>
-          <t>Fed Hammack Speech</t>
-        </is>
-      </c>
-      <c r="C2031" t="inlineStr"/>
-      <c r="D2031" t="inlineStr"/>
-      <c r="E2031" t="inlineStr"/>
-      <c r="F2031" t="inlineStr"/>
-      <c r="G2031" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2032">
-      <c r="A2032" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B2032" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Sentiment FinalJUN</t>
-        </is>
-      </c>
-      <c r="C2032" t="inlineStr"/>
-      <c r="D2032" t="inlineStr">
-        <is>
-          <t>52.2</t>
-        </is>
-      </c>
-      <c r="E2032" t="inlineStr">
-        <is>
-          <t>60.5</t>
-        </is>
-      </c>
-      <c r="F2032" t="inlineStr">
-        <is>
-          <t>60.5</t>
-        </is>
-      </c>
-      <c r="G2032" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2033">
-      <c r="A2033" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B2033" t="inlineStr">
-        <is>
-          <t>Michigan 5 Year Inflation Expectations FinalJUN</t>
-        </is>
-      </c>
-      <c r="C2033" t="inlineStr"/>
-      <c r="D2033" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="E2033" t="inlineStr">
-        <is>
-          <t>4.1%</t>
-        </is>
-      </c>
-      <c r="F2033" t="inlineStr">
-        <is>
-          <t>4.1%</t>
-        </is>
-      </c>
-      <c r="G2033" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2034">
-      <c r="A2034" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B2034" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Expectations FinalJUN</t>
-        </is>
-      </c>
-      <c r="C2034" t="inlineStr"/>
-      <c r="D2034" t="inlineStr">
-        <is>
-          <t>47.9</t>
-        </is>
-      </c>
-      <c r="E2034" t="inlineStr">
-        <is>
-          <t>58.4</t>
-        </is>
-      </c>
-      <c r="F2034" t="inlineStr">
-        <is>
-          <t>58.4</t>
-        </is>
-      </c>
-      <c r="G2034" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2035">
-      <c r="A2035" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B2035" t="inlineStr">
-        <is>
-          <t>Michigan Current Conditions FinalJUN</t>
-        </is>
-      </c>
-      <c r="C2035" t="inlineStr"/>
-      <c r="D2035" t="inlineStr">
-        <is>
-          <t>58.9</t>
-        </is>
-      </c>
-      <c r="E2035" t="inlineStr">
-        <is>
-          <t>63.7</t>
-        </is>
-      </c>
-      <c r="F2035" t="inlineStr">
-        <is>
-          <t>63.7</t>
-        </is>
-      </c>
-      <c r="G2035" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2036">
-      <c r="A2036" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B2036" t="inlineStr">
-        <is>
-          <t>Michigan Inflation Expectations FinalJUN</t>
-        </is>
-      </c>
-      <c r="C2036" t="inlineStr"/>
-      <c r="D2036" t="inlineStr">
-        <is>
-          <t>6.6%</t>
-        </is>
-      </c>
-      <c r="E2036" t="inlineStr">
-        <is>
-          <t>5.1%</t>
-        </is>
-      </c>
-      <c r="F2036" t="inlineStr">
-        <is>
-          <t>5.1%</t>
-        </is>
-      </c>
-      <c r="G2036" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2037">
-      <c r="A2037" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B2037" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountJUN/27</t>
-        </is>
-      </c>
-      <c r="C2037" t="inlineStr"/>
-      <c r="D2037" t="inlineStr"/>
-      <c r="E2037" t="inlineStr"/>
-      <c r="F2037" t="inlineStr"/>
-      <c r="G2037" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2038">
-      <c r="A2038" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B2038" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountJUN/27</t>
-        </is>
-      </c>
-      <c r="C2038" t="inlineStr"/>
-      <c r="D2038" t="inlineStr"/>
-      <c r="E2038" t="inlineStr"/>
-      <c r="F2038" t="inlineStr"/>
-      <c r="G2038" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2039">
-      <c r="A2039" t="inlineStr">
-        <is>
-          <t>Sunday June 29 2025</t>
-        </is>
-      </c>
-      <c r="B2039" t="inlineStr"/>
-      <c r="C2039" t="inlineStr"/>
-      <c r="D2039" t="inlineStr"/>
-      <c r="E2039" t="inlineStr"/>
-      <c r="F2039" t="inlineStr"/>
-      <c r="G2039" t="inlineStr"/>
+      <c r="G1984" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
